--- a/STB32/Confiabilidade.xlsx
+++ b/STB32/Confiabilidade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4ddf84058e614ca/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Confiabilidade_de_Sistemas_Eletricos_de_Potencia_PPGEE_UFSM\STB32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="8_{749BBD09-CB44-4EF1-8FED-C1C7DE196359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDF9E103-EDB9-45B6-A26D-26C681B5067F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AC45BE-4AFE-49DC-9D59-16505D012B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="662" activeTab="4" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="662" activeTab="5" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
   </bookViews>
   <sheets>
     <sheet name="Barras" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="SegmentaçãodeDados_Barra_PARA">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Circuito">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -44,9 +44,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -106,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="113">
   <si>
     <t>CNOVOS-SC525</t>
   </si>
@@ -402,15 +400,6 @@
     <t>Para2</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Fluxo</t>
-  </si>
-  <si>
     <t>Tensão</t>
   </si>
   <si>
@@ -434,16 +423,38 @@
   <si>
     <t>Resultando</t>
   </si>
+  <si>
+    <t>Divergente</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Soma Acumulada</t>
+  </si>
+  <si>
+    <t>Contagem</t>
+  </si>
+  <si>
+    <t>Ptotal</t>
+  </si>
+  <si>
+    <t>Qtotal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
     <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="171" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -488,20 +499,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -518,12 +520,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,54 +633,176 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="80">
     <dxf>
       <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -591,21 +813,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -616,21 +852,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -641,21 +891,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -666,18 +930,322 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -699,630 +1267,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1331,6 +1276,12 @@
         </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1351,12 +1302,20 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1382,6 +1341,24 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1401,12 +1378,22 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1432,6 +1419,26 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1451,12 +1458,22 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1482,6 +1499,26 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1500,17 +1537,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1536,6 +1577,26 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1554,19 +1615,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1594,16 +1657,58 @@
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1629,13 +1734,26 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1655,56 +1773,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1732,16 +1815,58 @@
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1767,13 +1892,58 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1799,17 +1969,763 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1835,116 +2751,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -2350,84 +3156,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8C4F7790-E7F7-4EF0-B54E-D1823ACE95A6}" name="Tabela5" displayName="Tabela5" ref="A1:E59" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8C4F7790-E7F7-4EF0-B54E-D1823ACE95A6}" name="Tabela5" displayName="Tabela5" ref="A1:E59" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A1:E59" xr:uid="{8C4F7790-E7F7-4EF0-B54E-D1823ACE95A6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9DFFAECE-7EA0-47FE-B0F2-CBBBD9745D8B}" name="Barra DE" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{6CDB9866-C348-40F6-A1A8-3FF362B0E38A}" name="Nome DE" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{1D42440C-9712-4E62-99A2-1CDB84338531}" name="Barra PARA" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{6B1D0BC3-711B-44E2-866B-D350EA3C271B}" name="Nome PARA" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{C7CF388C-D187-4A0B-B586-FD91F2513B05}" name="Circuito" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{9DFFAECE-7EA0-47FE-B0F2-CBBBD9745D8B}" name="Barra DE" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{6CDB9866-C348-40F6-A1A8-3FF362B0E38A}" name="Nome DE" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{1D42440C-9712-4E62-99A2-1CDB84338531}" name="Barra PARA" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{6B1D0BC3-711B-44E2-866B-D350EA3C271B}" name="Nome PARA" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{C7CF388C-D187-4A0B-B586-FD91F2513B05}" name="Circuito" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{285D8EA8-3C01-4B4F-B339-304906C160CF}" name="Tabela2" displayName="Tabela2" ref="A1:E39" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{285D8EA8-3C01-4B4F-B339-304906C160CF}" name="Tabela2" displayName="Tabela2" ref="A1:E39" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A1:E39" xr:uid="{285D8EA8-3C01-4B4F-B339-304906C160CF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
     <sortCondition ref="A1:A39"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E3FAC358-335C-416F-8CDB-9FD6211A8CEA}" name="DE" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{5BF2F4BD-C3B3-4F31-ABB3-7E6CA80DE17B}" name="De(barra)" dataDxfId="67">
+    <tableColumn id="1" xr3:uid="{E3FAC358-335C-416F-8CDB-9FD6211A8CEA}" name="DE" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{5BF2F4BD-C3B3-4F31-ABB3-7E6CA80DE17B}" name="De(barra)" dataDxfId="69">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[DE]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3AA0A196-07A9-4045-9D38-2549140A86BF}" name="PARA" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{74E9DE7C-B823-49DE-B711-6B669B513093}" name="Para(barra)" dataDxfId="65">
+    <tableColumn id="2" xr3:uid="{3AA0A196-07A9-4045-9D38-2549140A86BF}" name="PARA" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{74E9DE7C-B823-49DE-B711-6B669B513093}" name="Para(barra)" dataDxfId="67">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[PARA]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A6A726EB-A685-4BC2-A0F0-E9718B181616}" name="q" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{A6A726EB-A685-4BC2-A0F0-E9718B181616}" name="q" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A760864C-441B-4D45-8458-D4E44D37BDC0}" name="Tabela25" displayName="Tabela25" ref="H1:L39" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A760864C-441B-4D45-8458-D4E44D37BDC0}" name="Tabela25" displayName="Tabela25" ref="H1:L39" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="H1:L39" xr:uid="{A760864C-441B-4D45-8458-D4E44D37BDC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:L39">
     <sortCondition ref="H1:H39"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{922456CF-4688-4A7B-B79A-F5CED35271FC}" name="DE" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{B948BD46-0F80-41D0-BE16-D591969D5775}" name="De(barra)" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{922456CF-4688-4A7B-B79A-F5CED35271FC}" name="DE" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{B948BD46-0F80-41D0-BE16-D591969D5775}" name="De(barra)" dataDxfId="62">
       <calculatedColumnFormula>VLOOKUP(Tabela25[[#This Row],[DE]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E73D961C-339B-45B9-9730-525AE30076E4}" name="PARA" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{56D5632E-73B6-4F0B-8782-BCAFB2A6E4C3}" name="Para(barra)" dataDxfId="58">
+    <tableColumn id="2" xr3:uid="{E73D961C-339B-45B9-9730-525AE30076E4}" name="PARA" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{56D5632E-73B6-4F0B-8782-BCAFB2A6E4C3}" name="Para(barra)" dataDxfId="60">
       <calculatedColumnFormula>VLOOKUP(Tabela25[[#This Row],[PARA]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C46EB45B-6AB6-4ADA-A276-95123313AF32}" name="q" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{C46EB45B-6AB6-4ADA-A276-95123313AF32}" name="q" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}" name="Tabela6" displayName="Tabela6" ref="B1:J7" totalsRowCount="1" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
-  <autoFilter ref="B1:J6" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}" name="Tabela6" displayName="Tabela6" ref="B1:J8" totalsRowCount="1" headerRowDxfId="16" dataDxfId="58" totalsRowDxfId="15" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
+  <autoFilter ref="B1:J7" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E0DDD699-B14A-48E3-8A4D-92CDD859CB0A}" name="Contingência" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{7E976C01-EA60-4783-93D1-F55015E78DC4}" name="De1" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{CFAA91F6-DFEF-4E90-8840-4E5F9AAE45C7}" name="Barra (de)" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="1" xr3:uid="{E0DDD699-B14A-48E3-8A4D-92CDD859CB0A}" name="Contingência" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{7E976C01-EA60-4783-93D1-F55015E78DC4}" name="De1" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{CFAA91F6-DFEF-4E90-8840-4E5F9AAE45C7}" name="Barra (de)" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E7589C51-2B8A-47AA-A7B8-E995C518ED08}" name="Para1" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{60B78CE9-C734-4759-B01D-46C0A71C4E17}" name="Barra (para)" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="4" xr3:uid="{E7589C51-2B8A-47AA-A7B8-E995C518ED08}" name="Para1" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{60B78CE9-C734-4759-B01D-46C0A71C4E17}" name="Barra (para)" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0BF3B21B-6BFA-43BD-B173-FA5FF5328708}" name="Severidade" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{C92B17CD-9FE6-4C7B-995E-1933C1FAFA7C}" name="Q" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="6" xr3:uid="{0BF3B21B-6BFA-43BD-B173-FA5FF5328708}" name="Severidade" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{C92B17CD-9FE6-4C7B-995E-1933C1FAFA7C}" name="Q" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
       <totalsRowFormula>1-Tabela6[[#Totals],[P]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{66324C88-E987-435D-8432-6F955D76832C}" name="P" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="7" xr3:uid="{66324C88-E987-435D-8432-6F955D76832C}" name="P" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>1-Tabela6[[#This Row],[Q]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(Tabela6[P])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A9439FEC-1AF2-43F1-9F22-B0A52DAD19D7}" name="Resultando" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="8" xr3:uid="{A9439FEC-1AF2-43F1-9F22-B0A52DAD19D7}" name="Resultando" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</calculatedColumnFormula>
       <totalsRowFormula>Tabela6[[#Totals],[P]]+Tabela6[[#Totals],[Q]]</totalsRowFormula>
     </tableColumn>
@@ -2437,47 +3243,47 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}" name="Tabela14" displayName="Tabela14" ref="B1:P46" totalsRowCount="1" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
-  <autoFilter ref="B1:P45" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}" name="Tabela14" displayName="Tabela14" ref="B1:P33" totalsRowCount="1" headerRowDxfId="38" dataDxfId="54" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+  <autoFilter ref="B1:P32" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F23">
     <sortCondition ref="B1:B23"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{530266C4-22F8-4B35-94CC-F58F4DAC4C3A}" name="Contingência" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{DBC54C2F-8ADF-4787-81A9-7040633E7F29}" name="De1" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{02D8AC41-4D65-4650-9298-D8D4E7BD45E6}" name="Barra (de)1" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="1" xr3:uid="{530266C4-22F8-4B35-94CC-F58F4DAC4C3A}" name="Contingência" dataDxfId="53" totalsRowDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{DBC54C2F-8ADF-4787-81A9-7040633E7F29}" name="De1" dataDxfId="52" totalsRowDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{02D8AC41-4D65-4650-9298-D8D4E7BD45E6}" name="Barra (de)1" dataDxfId="51" totalsRowDxfId="12">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7839710F-F757-4CBE-BB48-0F7A451493B9}" name="Para1" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{7E2A081F-15DD-4193-A1B9-6A221EB9D4D7}" name="Barra (para)1" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="11" xr3:uid="{7839710F-F757-4CBE-BB48-0F7A451493B9}" name="Para1" dataDxfId="50" totalsRowDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{7E2A081F-15DD-4193-A1B9-6A221EB9D4D7}" name="Barra (para)1" dataDxfId="49" totalsRowDxfId="10">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{20936AFD-E691-4EF3-8EE7-0D580D166D93}" name="Severidade" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{07B4F78E-E8D4-404A-A4B7-0DE785AF559F}" name="Q1" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="4" xr3:uid="{20936AFD-E691-4EF3-8EE7-0D580D166D93}" name="Severidade" dataDxfId="48" totalsRowDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{07B4F78E-E8D4-404A-A4B7-0DE785AF559F}" name="Q1" dataDxfId="47" totalsRowDxfId="8">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F153D764-5207-4BC1-B058-DEF77DC88108}" name="De2" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{C79C7F39-1E65-4A10-9F3E-7099AAEB4D9E}" name="Barra (de)2" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="3" xr3:uid="{F153D764-5207-4BC1-B058-DEF77DC88108}" name="De2" dataDxfId="46" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{C79C7F39-1E65-4A10-9F3E-7099AAEB4D9E}" name="Barra (de)2" dataDxfId="45" totalsRowDxfId="6">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1968FD62-F6C9-452F-B326-57551F16AE65}" name="Para2" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{B471B155-F718-411A-B2B1-6059282E00EF}" name="Barra (para)2" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="9" xr3:uid="{1968FD62-F6C9-452F-B326-57551F16AE65}" name="Para2" dataDxfId="44" totalsRowDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{B471B155-F718-411A-B2B1-6059282E00EF}" name="Barra (para)2" dataDxfId="43" totalsRowDxfId="4">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{4B5CF982-7C1E-40D4-9401-6C8E7F97B540}" name="Q2" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="14" xr3:uid="{4B5CF982-7C1E-40D4-9401-6C8E7F97B540}" name="Q2" dataDxfId="42" totalsRowDxfId="3">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D2547EB0-973A-4D5D-A654-0FB052764852}" name="Q Eq" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="2" xr3:uid="{D2547EB0-973A-4D5D-A654-0FB052764852}" name="Q Eq" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="2">
       <calculatedColumnFormula>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</calculatedColumnFormula>
       <totalsRowFormula>1-Tabela14[[#Totals],[P Eq]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{017C9514-1592-48BE-86A8-5CDEEF168B6F}" name="P Eq" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="13" xr3:uid="{017C9514-1592-48BE-86A8-5CDEEF168B6F}" name="P Eq" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="1">
       <calculatedColumnFormula>1-Tabela14[[#This Row],[Q Eq]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(Tabela14[P Eq])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A844C50B-09C8-475F-9D4A-41BEBD8F159B}" name="Resultando" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="15" xr3:uid="{A844C50B-09C8-475F-9D4A-41BEBD8F159B}" name="Resultando" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</calculatedColumnFormula>
-      <totalsRowFormula>PRODUCT(P2:P45)</totalsRowFormula>
+      <totalsRowFormula>Tabela14[[#Totals],[P Eq]]+Tabela14[[#Totals],[Q Eq]]</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2783,7 +3589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4574A594-0CA3-43B2-A59B-FFD1CA94F6F4}">
   <dimension ref="A1:AM161"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -23035,7 +23841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AF1F68-5056-431B-ACEC-1B889C462C97}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -24469,10 +25275,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C7D0E8-6D75-4206-A1C8-6102FE687BCC}">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24480,7 +25286,7 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -24498,7 +25304,7 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -24523,29 +25329,32 @@
       <c r="I1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>478</v>
       </c>
@@ -24555,8 +25364,8 @@
       <c r="C2" s="1">
         <v>9.6</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>101</v>
+      <c r="D2" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -24565,7 +25374,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="H2" s="1">
         <v>896</v>
@@ -24573,32 +25382,32 @@
       <c r="I2" s="1">
         <v>897</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="1">
-        <v>357</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2</v>
-      </c>
-      <c r="N2" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="O2" s="1">
-        <v>933</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="K2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="11">
+        <v>509</v>
+      </c>
+      <c r="M2" s="11">
+        <v>2</v>
+      </c>
+      <c r="N2" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="O2" s="11">
         <v>955</v>
       </c>
-      <c r="Q2" s="1">
-        <v>955</v>
-      </c>
-      <c r="R2" s="1">
+      <c r="P2" s="11">
         <v>946</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q2" s="11">
+        <v>960</v>
+      </c>
+      <c r="R2" s="11">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>486</v>
       </c>
@@ -24608,7 +25417,7 @@
       <c r="C3" s="1">
         <v>5.5</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1">
         <v>13</v>
       </c>
@@ -24616,7 +25425,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H3" s="1">
         <v>938</v>
@@ -24624,30 +25433,30 @@
       <c r="I3" s="1">
         <v>959</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="1">
-        <v>521</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="O3" s="1">
+      <c r="K3" s="9"/>
+      <c r="L3" s="11">
+        <v>517</v>
+      </c>
+      <c r="M3" s="11">
+        <v>2</v>
+      </c>
+      <c r="N3" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="O3" s="11">
         <v>955</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="11">
         <v>946</v>
       </c>
-      <c r="Q3" s="1">
-        <v>960</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q3" s="11">
+        <v>1010</v>
+      </c>
+      <c r="R3" s="11">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>477</v>
       </c>
@@ -24657,7 +25466,7 @@
       <c r="C4" s="1">
         <v>5.2</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1">
         <v>24</v>
       </c>
@@ -24673,30 +25482,30 @@
       <c r="I4" s="1">
         <v>979</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="1">
-        <v>355</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="O4" s="1">
-        <v>933</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="K4" s="9"/>
+      <c r="L4" s="11">
+        <v>508</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="O4" s="11">
         <v>955</v>
       </c>
-      <c r="Q4" s="1">
-        <v>938</v>
-      </c>
-      <c r="R4" s="1">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P4" s="11">
+        <v>946</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>959</v>
+      </c>
+      <c r="R4" s="11">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>346</v>
       </c>
@@ -24706,46 +25515,46 @@
       <c r="C5" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H5" s="1">
+        <v>964</v>
+      </c>
+      <c r="I5" s="1">
+        <v>976</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="11">
+        <v>352</v>
+      </c>
+      <c r="M5" s="11">
+        <v>2</v>
+      </c>
+      <c r="N5" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O5" s="11">
+        <v>933</v>
+      </c>
+      <c r="P5" s="11">
         <v>955</v>
       </c>
-      <c r="I5" s="1">
-        <v>979</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="1">
-        <v>530</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2</v>
-      </c>
-      <c r="N5" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="11">
         <v>955</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="11">
         <v>946</v>
       </c>
-      <c r="Q5" s="1">
-        <v>1010</v>
-      </c>
-      <c r="R5" s="1">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>344</v>
       </c>
@@ -24755,46 +25564,46 @@
       <c r="C6" s="1">
         <v>3.5</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H6" s="1">
+        <v>995</v>
+      </c>
+      <c r="I6" s="1">
         <v>964</v>
       </c>
-      <c r="I6" s="1">
-        <v>976</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="1">
-        <v>273</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="O6" s="1">
-        <v>856</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="K6" s="9"/>
+      <c r="L6" s="11">
+        <v>349</v>
+      </c>
+      <c r="M6" s="11">
+        <v>1</v>
+      </c>
+      <c r="N6" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="O6" s="11">
         <v>933</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="P6" s="11">
         <v>955</v>
       </c>
-      <c r="R6" s="1">
+      <c r="Q6" s="11">
+        <v>938</v>
+      </c>
+      <c r="R6" s="11">
         <v>946</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>456</v>
       </c>
@@ -24804,30 +25613,42 @@
       <c r="C7" s="1">
         <v>3.2</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="1">
-        <v>520</v>
-      </c>
-      <c r="M7" s="1">
-        <v>2</v>
-      </c>
-      <c r="N7" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="O7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="1">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1">
         <v>955</v>
       </c>
-      <c r="P7" s="1">
+      <c r="I7" s="1">
+        <v>979</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="11">
+        <v>487</v>
+      </c>
+      <c r="M7" s="11">
+        <v>2</v>
+      </c>
+      <c r="N7" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="O7" s="11">
+        <v>947</v>
+      </c>
+      <c r="P7" s="11">
+        <v>939</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>955</v>
+      </c>
+      <c r="R7" s="11">
         <v>946</v>
       </c>
-      <c r="Q7" s="1">
-        <v>959</v>
-      </c>
-      <c r="R7" s="1">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>497</v>
       </c>
@@ -24837,30 +25658,30 @@
       <c r="C8" s="1">
         <v>3.2</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="1">
-        <v>458</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="O8" s="1">
-        <v>938</v>
-      </c>
-      <c r="P8" s="1">
-        <v>946</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>960</v>
-      </c>
-      <c r="R8" s="1">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K8" s="9"/>
+      <c r="L8" s="11">
+        <v>528</v>
+      </c>
+      <c r="M8" s="11">
+        <v>2</v>
+      </c>
+      <c r="N8" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="O8" s="11">
+        <v>955</v>
+      </c>
+      <c r="P8" s="11">
+        <v>964</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>965</v>
+      </c>
+      <c r="R8" s="11">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>439</v>
       </c>
@@ -24870,30 +25691,60 @@
       <c r="C9" s="1">
         <v>2.6</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="1">
-        <v>480</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="O9" s="1">
+      <c r="K9" s="9"/>
+      <c r="L9" s="11">
+        <v>449</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="O9" s="11">
         <v>938</v>
       </c>
-      <c r="P9" s="1">
-        <v>955</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="P9" s="11">
+        <v>946</v>
+      </c>
+      <c r="Q9" s="11">
         <v>960</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="11">
         <v>1015</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V9" s="1">
+        <v>638</v>
+      </c>
+      <c r="W9" s="1">
+        <v>529</v>
+      </c>
+      <c r="X9" s="1">
+        <v>467</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>446</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>444</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>377</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>375</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>326</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>324</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>507</v>
       </c>
@@ -24903,30 +25754,30 @@
       <c r="C10" s="1">
         <v>2.4</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="1">
-        <v>498</v>
-      </c>
-      <c r="M10" s="1">
-        <v>2</v>
-      </c>
-      <c r="N10" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="O10" s="1">
-        <v>947</v>
-      </c>
-      <c r="P10" s="1">
-        <v>939</v>
-      </c>
-      <c r="Q10" s="1">
+      <c r="K10" s="9"/>
+      <c r="L10" s="11">
+        <v>470</v>
+      </c>
+      <c r="M10" s="11">
+        <v>1</v>
+      </c>
+      <c r="N10" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="O10" s="11">
+        <v>938</v>
+      </c>
+      <c r="P10" s="11">
         <v>955</v>
       </c>
-      <c r="R10" s="1">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q10" s="11">
+        <v>960</v>
+      </c>
+      <c r="R10" s="11">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>476</v>
       </c>
@@ -24936,30 +25787,30 @@
       <c r="C11" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="1">
-        <v>594</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="O11" s="1">
-        <v>965</v>
-      </c>
-      <c r="P11" s="1">
-        <v>1057</v>
-      </c>
-      <c r="Q11" s="1">
+      <c r="K11" s="9"/>
+      <c r="L11" s="11">
+        <v>538</v>
+      </c>
+      <c r="M11" s="11">
+        <v>2</v>
+      </c>
+      <c r="N11" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="O11" s="11">
         <v>955</v>
       </c>
-      <c r="R11" s="1">
+      <c r="P11" s="11">
         <v>964</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q11" s="11">
+        <v>1047</v>
+      </c>
+      <c r="R11" s="11">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>438</v>
       </c>
@@ -24969,30 +25820,30 @@
       <c r="C12" s="1">
         <v>1.2</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="1">
-        <v>541</v>
-      </c>
-      <c r="M12" s="1">
-        <v>2</v>
-      </c>
-      <c r="N12" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="O12" s="1">
+      <c r="K12" s="9"/>
+      <c r="L12" s="11">
+        <v>507</v>
+      </c>
+      <c r="M12" s="11">
+        <v>2</v>
+      </c>
+      <c r="N12" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O12" s="11">
         <v>955</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="11">
+        <v>946</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>955</v>
+      </c>
+      <c r="R12" s="11">
         <v>964</v>
       </c>
-      <c r="Q12" s="1">
-        <v>965</v>
-      </c>
-      <c r="R12" s="1">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>511</v>
       </c>
@@ -25002,30 +25853,30 @@
       <c r="C13" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="1">
-        <v>457</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="O13" s="1">
+      <c r="K13" s="9"/>
+      <c r="L13" s="11">
+        <v>297</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1</v>
+      </c>
+      <c r="N13" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="O13" s="11">
+        <v>856</v>
+      </c>
+      <c r="P13" s="11">
+        <v>1060</v>
+      </c>
+      <c r="Q13" s="11">
         <v>938</v>
       </c>
-      <c r="P13" s="1">
-        <v>946</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>959</v>
-      </c>
-      <c r="R13" s="1">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R13" s="11">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>508</v>
       </c>
@@ -25035,30 +25886,30 @@
       <c r="C14" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="1">
-        <v>380</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="O14" s="1">
+      <c r="K14" s="9"/>
+      <c r="L14" s="11">
+        <v>476</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1</v>
+      </c>
+      <c r="N14" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="O14" s="11">
+        <v>938</v>
+      </c>
+      <c r="P14" s="11">
+        <v>955</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>999</v>
+      </c>
+      <c r="R14" s="11">
         <v>933</v>
       </c>
-      <c r="P14" s="1">
-        <v>959</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>938</v>
-      </c>
-      <c r="R14" s="1">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>269</v>
       </c>
@@ -25068,30 +25919,30 @@
       <c r="C15" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="1">
-        <v>479</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="O15" s="1">
+      <c r="K15" s="9"/>
+      <c r="L15" s="11">
+        <v>269</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="O15" s="11">
+        <v>856</v>
+      </c>
+      <c r="P15" s="11">
+        <v>933</v>
+      </c>
+      <c r="Q15" s="11">
         <v>938</v>
       </c>
-      <c r="P15" s="1">
+      <c r="R15" s="11">
         <v>955</v>
       </c>
-      <c r="Q15" s="1">
-        <v>959</v>
-      </c>
-      <c r="R15" s="1">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>510</v>
       </c>
@@ -25101,27 +25952,27 @@
       <c r="C16" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="1">
-        <v>271</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="O16" s="1">
-        <v>856</v>
-      </c>
-      <c r="P16" s="1">
-        <v>933</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="K16" s="9"/>
+      <c r="L16" s="11">
+        <v>448</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1</v>
+      </c>
+      <c r="N16" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="O16" s="11">
         <v>938</v>
       </c>
-      <c r="R16" s="1">
-        <v>955</v>
+      <c r="P16" s="11">
+        <v>946</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>959</v>
+      </c>
+      <c r="R16" s="11">
+        <v>895</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -25134,645 +25985,389 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="1">
-        <v>454</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="O17" s="1">
+      <c r="K17" s="9"/>
+      <c r="L17" s="11">
+        <v>542</v>
+      </c>
+      <c r="M17" s="11">
+        <v>1</v>
+      </c>
+      <c r="N17" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O17" s="11">
+        <v>955</v>
+      </c>
+      <c r="P17" s="11">
+        <v>964</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>1041</v>
+      </c>
+      <c r="R17" s="11">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K18" s="9"/>
+      <c r="L18" s="11">
+        <v>539</v>
+      </c>
+      <c r="M18" s="11">
+        <v>1</v>
+      </c>
+      <c r="N18" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O18" s="11">
+        <v>955</v>
+      </c>
+      <c r="P18" s="11">
+        <v>964</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>1057</v>
+      </c>
+      <c r="R18" s="11">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K19" s="9"/>
+      <c r="L19" s="11">
+        <v>272</v>
+      </c>
+      <c r="M19" s="11">
+        <v>1</v>
+      </c>
+      <c r="N19" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O19" s="11">
+        <v>856</v>
+      </c>
+      <c r="P19" s="11">
+        <v>933</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>955</v>
+      </c>
+      <c r="R19" s="11">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K20" s="9"/>
+      <c r="L20" s="11">
+        <v>541</v>
+      </c>
+      <c r="M20" s="11">
+        <v>1</v>
+      </c>
+      <c r="N20" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O20" s="11">
+        <v>955</v>
+      </c>
+      <c r="P20" s="11">
+        <v>964</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>1069</v>
+      </c>
+      <c r="R20" s="11">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K21" s="9"/>
+      <c r="L21" s="11">
+        <v>353</v>
+      </c>
+      <c r="M21" s="11">
+        <v>1</v>
+      </c>
+      <c r="N21" s="11">
+        <v>1</v>
+      </c>
+      <c r="O21" s="11">
+        <v>933</v>
+      </c>
+      <c r="P21" s="11">
+        <v>955</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>955</v>
+      </c>
+      <c r="R21" s="11">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K22" s="9"/>
+      <c r="L22" s="11">
+        <v>468</v>
+      </c>
+      <c r="M22" s="11">
+        <v>1</v>
+      </c>
+      <c r="N22" s="11">
+        <v>1</v>
+      </c>
+      <c r="O22" s="11">
         <v>938</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P22" s="11">
+        <v>955</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>955</v>
+      </c>
+      <c r="R22" s="11">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="11">
+        <v>638</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11">
+        <v>999</v>
+      </c>
+      <c r="P23" s="11">
+        <v>896</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>1060</v>
+      </c>
+      <c r="R23" s="11">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K24" s="9"/>
+      <c r="L24" s="11">
+        <v>529</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11">
+        <v>955</v>
+      </c>
+      <c r="P24" s="11">
+        <v>964</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>976</v>
+      </c>
+      <c r="R24" s="11">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K25" s="9"/>
+      <c r="L25" s="11">
+        <v>467</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11">
+        <v>938</v>
+      </c>
+      <c r="P25" s="11">
+        <v>955</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>955</v>
+      </c>
+      <c r="R25" s="11">
         <v>946</v>
       </c>
-      <c r="Q17" s="1">
-        <v>947</v>
-      </c>
-      <c r="R17" s="1">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K18" s="17"/>
-      <c r="L18" s="1">
-        <v>363</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="O18" s="1">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K26" s="9"/>
+      <c r="L26" s="11">
+        <v>446</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11">
+        <v>938</v>
+      </c>
+      <c r="P26" s="11">
+        <v>946</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>955</v>
+      </c>
+      <c r="R26" s="11">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K27" s="9"/>
+      <c r="L27" s="11">
+        <v>444</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11">
+        <v>938</v>
+      </c>
+      <c r="P27" s="11">
+        <v>946</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>938</v>
+      </c>
+      <c r="R27" s="11">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K28" s="9"/>
+      <c r="L28" s="11">
+        <v>377</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11">
         <v>933</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P28" s="11">
+        <v>959</v>
+      </c>
+      <c r="Q28" s="11">
         <v>955</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R28" s="11">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K29" s="9"/>
+      <c r="L29" s="11">
+        <v>375</v>
+      </c>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11">
+        <v>933</v>
+      </c>
+      <c r="P29" s="11">
+        <v>959</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>938</v>
+      </c>
+      <c r="R29" s="11">
         <v>955</v>
       </c>
-      <c r="R18" s="1">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K19" s="17"/>
-      <c r="L19" s="1">
-        <v>358</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="O19" s="1">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K30" s="9"/>
+      <c r="L30" s="11">
+        <v>326</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11">
         <v>933</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P30" s="11">
+        <v>895</v>
+      </c>
+      <c r="Q30" s="11">
         <v>955</v>
       </c>
-      <c r="Q19" s="1">
-        <v>955</v>
-      </c>
-      <c r="R19" s="1">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K20" s="17"/>
-      <c r="L20" s="1">
-        <v>632</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="O20" s="1">
-        <v>955</v>
-      </c>
-      <c r="P20" s="1">
-        <v>964</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>1047</v>
-      </c>
-      <c r="R20" s="1">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K21" s="17"/>
-      <c r="L21" s="1">
-        <v>552</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="O21" s="1">
-        <v>955</v>
-      </c>
-      <c r="P21" s="1">
-        <v>964</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>1047</v>
-      </c>
-      <c r="R21" s="1">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K22" s="17"/>
-      <c r="L22" s="1">
-        <v>279</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="O22" s="1">
-        <v>856</v>
-      </c>
-      <c r="P22" s="1">
+      <c r="R30" s="11">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K31" s="9"/>
+      <c r="L31" s="11">
+        <v>324</v>
+      </c>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11">
         <v>933</v>
       </c>
-      <c r="Q22" s="1">
-        <v>955</v>
-      </c>
-      <c r="R22" s="1">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K23" s="17"/>
-      <c r="L23" s="1">
-        <v>274</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="O23" s="1">
-        <v>856</v>
-      </c>
-      <c r="P23" s="1">
+      <c r="P31" s="11">
+        <v>895</v>
+      </c>
+      <c r="Q31" s="11">
         <v>933</v>
       </c>
-      <c r="Q23" s="1">
-        <v>955</v>
-      </c>
-      <c r="R23" s="1">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="17"/>
-      <c r="L24" s="1">
-        <v>462</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O24" s="1">
-        <v>938</v>
-      </c>
-      <c r="P24" s="1">
-        <v>946</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>995</v>
-      </c>
-      <c r="R24" s="1">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K25" s="17"/>
-      <c r="L25" s="1">
-        <v>636</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
-      <c r="N25" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O25" s="1">
-        <v>955</v>
-      </c>
-      <c r="P25" s="1">
-        <v>964</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>1041</v>
-      </c>
-      <c r="R25" s="1">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K26" s="17"/>
-      <c r="L26" s="1">
-        <v>556</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1</v>
-      </c>
-      <c r="N26" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O26" s="1">
-        <v>955</v>
-      </c>
-      <c r="P26" s="1">
-        <v>964</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>1041</v>
-      </c>
-      <c r="R26" s="1">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K27" s="17"/>
-      <c r="L27" s="1">
-        <v>633</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O27" s="1">
-        <v>955</v>
-      </c>
-      <c r="P27" s="1">
-        <v>964</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>1057</v>
-      </c>
-      <c r="R27" s="1">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K28" s="17"/>
-      <c r="L28" s="1">
-        <v>553</v>
-      </c>
-      <c r="M28" s="1">
-        <v>1</v>
-      </c>
-      <c r="N28" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O28" s="1">
-        <v>955</v>
-      </c>
-      <c r="P28" s="1">
-        <v>964</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>1057</v>
-      </c>
-      <c r="R28" s="1">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K29" s="17"/>
-      <c r="L29" s="1">
-        <v>405</v>
-      </c>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
-      <c r="N29" s="1">
-        <v>1</v>
-      </c>
-      <c r="O29" s="1">
-        <v>934</v>
-      </c>
-      <c r="P29" s="1">
-        <v>960</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>938</v>
-      </c>
-      <c r="R29" s="1">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K30" s="17"/>
-      <c r="L30" s="1">
-        <v>635</v>
-      </c>
-      <c r="M30" s="1">
-        <v>1</v>
-      </c>
-      <c r="N30" s="1">
-        <v>1</v>
-      </c>
-      <c r="O30" s="1">
-        <v>955</v>
-      </c>
-      <c r="P30" s="1">
-        <v>964</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>1069</v>
-      </c>
-      <c r="R30" s="1">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K31" s="17"/>
-      <c r="L31" s="1">
-        <v>555</v>
-      </c>
-      <c r="M31" s="1">
-        <v>1</v>
-      </c>
-      <c r="N31" s="1">
-        <v>1</v>
-      </c>
-      <c r="O31" s="1">
-        <v>955</v>
-      </c>
-      <c r="P31" s="1">
-        <v>964</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>1069</v>
-      </c>
-      <c r="R31" s="1">
-        <v>1041</v>
+      <c r="R31" s="11">
+        <v>959</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K32" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="L32" s="1">
-        <v>283</v>
-      </c>
-      <c r="M32" s="1">
-        <v>2</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O32" s="1">
-        <v>856</v>
-      </c>
-      <c r="P32" s="1">
+      <c r="K32" s="9"/>
+      <c r="L32" s="11">
+        <v>320</v>
+      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11">
         <v>933</v>
       </c>
-      <c r="Q32" s="1">
-        <v>999</v>
-      </c>
-      <c r="R32" s="1">
+      <c r="P32" s="11">
+        <v>895</v>
+      </c>
+      <c r="Q32" s="11">
         <v>933</v>
       </c>
-    </row>
-    <row r="33" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K33" s="17"/>
-      <c r="L33" s="1">
-        <v>725</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O33" s="1">
-        <v>1060</v>
-      </c>
-      <c r="P33" s="1">
-        <v>897</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>963</v>
-      </c>
-      <c r="R33" s="1">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="34" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K34" s="17"/>
-      <c r="L34" s="1">
-        <v>449</v>
-      </c>
-      <c r="M34" s="1">
-        <v>1</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O34" s="1">
-        <v>934</v>
-      </c>
-      <c r="P34" s="1">
-        <v>1047</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>1060</v>
-      </c>
-      <c r="R34" s="1">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="35" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K35" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="L35" s="1">
-        <v>670</v>
-      </c>
-      <c r="O35" s="1">
-        <v>999</v>
-      </c>
-      <c r="P35" s="1">
-        <v>896</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>1060</v>
-      </c>
-      <c r="R35" s="1">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="36" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K36" s="18"/>
-      <c r="L36" s="1">
-        <v>609</v>
-      </c>
-      <c r="O36" s="1">
-        <v>976</v>
-      </c>
-      <c r="P36" s="1">
-        <v>979</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>955</v>
-      </c>
-      <c r="R36" s="1">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="37" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K37" s="18"/>
-      <c r="L37" s="1">
-        <v>542</v>
-      </c>
-      <c r="O37" s="1">
-        <v>955</v>
-      </c>
-      <c r="P37" s="1">
-        <v>964</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>976</v>
-      </c>
-      <c r="R37" s="1">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="38" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K38" s="18"/>
-      <c r="L38" s="1">
-        <v>477</v>
-      </c>
-      <c r="O38" s="1">
-        <v>938</v>
-      </c>
-      <c r="P38" s="1">
-        <v>955</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>955</v>
-      </c>
-      <c r="R38" s="1">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="39" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K39" s="18"/>
-      <c r="L39" s="1">
-        <v>455</v>
-      </c>
-      <c r="O39" s="1">
-        <v>938</v>
-      </c>
-      <c r="P39" s="1">
-        <v>946</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>955</v>
-      </c>
-      <c r="R39" s="1">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="40" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K40" s="18"/>
-      <c r="L40" s="1">
-        <v>453</v>
-      </c>
-      <c r="O40" s="1">
-        <v>938</v>
-      </c>
-      <c r="P40" s="1">
-        <v>946</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>938</v>
-      </c>
-      <c r="R40" s="1">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="41" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K41" s="18"/>
-      <c r="L41" s="1">
-        <v>383</v>
-      </c>
-      <c r="O41" s="1">
-        <v>933</v>
-      </c>
-      <c r="P41" s="1">
+      <c r="R32" s="11">
         <v>959</v>
       </c>
-      <c r="Q41" s="1">
-        <v>955</v>
-      </c>
-      <c r="R41" s="1">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="42" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K42" s="18"/>
-      <c r="L42" s="1">
-        <v>381</v>
-      </c>
-      <c r="O42" s="1">
-        <v>933</v>
-      </c>
-      <c r="P42" s="1">
-        <v>959</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>938</v>
-      </c>
-      <c r="R42" s="1">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="43" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K43" s="18"/>
-      <c r="L43" s="1">
-        <v>330</v>
-      </c>
-      <c r="O43" s="1">
-        <v>933</v>
-      </c>
-      <c r="P43" s="1">
-        <v>895</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>955</v>
-      </c>
-      <c r="R43" s="1">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="44" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K44" s="18"/>
-      <c r="L44" s="1">
-        <v>328</v>
-      </c>
-      <c r="O44" s="1">
-        <v>933</v>
-      </c>
-      <c r="P44" s="1">
-        <v>895</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>938</v>
-      </c>
-      <c r="R44" s="1">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="45" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K45" s="18"/>
-      <c r="L45" s="1">
-        <v>324</v>
-      </c>
-      <c r="O45" s="1">
-        <v>933</v>
-      </c>
-      <c r="P45" s="1">
-        <v>895</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>933</v>
-      </c>
-      <c r="R45" s="1">
-        <v>959</v>
-      </c>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="K2:K31"/>
-    <mergeCell ref="K32:K34"/>
+  <mergeCells count="3">
     <mergeCell ref="D2:D6"/>
-    <mergeCell ref="K35:K45"/>
+    <mergeCell ref="K2:K22"/>
+    <mergeCell ref="K23:K32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -25780,15 +26375,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA4C73E-833A-4410-9019-FF849DCE3D9B}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -25801,60 +26396,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>108</v>
+      <c r="I1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="23">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="11">
         <v>896</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="11" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CASCOE-PR525</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="11">
         <v>897</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="11" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SCAXIA-PR525</v>
       </c>
-      <c r="G2" s="1">
-        <v>10</v>
+      <c r="G2" s="11">
+        <v>8.5</v>
       </c>
       <c r="H2" s="14">
         <f t="array" ref="H2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
@@ -25864,32 +26459,32 @@
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99969019000000003</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="24">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="23">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="11">
         <v>938</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="11" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="11">
         <v>959</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="11" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="G3" s="1">
-        <v>4.3</v>
+      <c r="G3" s="11">
+        <v>4.4000000000000004</v>
       </c>
       <c r="H3" s="14">
         <f t="array" ref="H3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
@@ -25899,31 +26494,31 @@
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99932162999999996</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="24">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="23">
         <v>24</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="11">
         <v>995</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="11" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="11">
         <v>979</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="11" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="11">
         <v>3</v>
       </c>
       <c r="H4" s="14">
@@ -25934,109 +26529,170 @@
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99845779999999995</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="24">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="23">
+        <v>20</v>
+      </c>
+      <c r="C5" s="11">
+        <v>964</v>
+      </c>
+      <c r="D5" s="11" t="str">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CAXIAS-RS525</v>
+      </c>
+      <c r="E5" s="11">
+        <v>976</v>
+      </c>
+      <c r="F5" s="11" t="str">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>GRAVAT-RS525</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="array" ref="H5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>3.8747E-4</v>
+      </c>
+      <c r="I5" s="14">
+        <f>1-Tabela6[[#This Row],[Q]]</f>
+        <v>0.99961253000000005</v>
+      </c>
+      <c r="J5" s="24">
+        <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="23">
+        <v>23</v>
+      </c>
+      <c r="C6" s="11">
+        <v>995</v>
+      </c>
+      <c r="D6" s="15" t="str">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>ITA-----0425</v>
+      </c>
+      <c r="E6" s="11">
+        <v>964</v>
+      </c>
+      <c r="F6" s="15" t="str">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CAXIAS-RS525</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="array" ref="H6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.2528000000000001E-3</v>
+      </c>
+      <c r="I6" s="16">
+        <f>1-Tabela6[[#This Row],[Q]]</f>
+        <v>0.99874719999999995</v>
+      </c>
+      <c r="J6" s="25">
+        <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="23">
         <v>17</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C7" s="11">
         <v>955</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D7" s="11" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E7" s="11">
         <v>979</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F7" s="11" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G5" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="H5" s="14">
-        <f t="array" ref="H5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+      <c r="G7" s="11"/>
+      <c r="H7" s="14">
+        <f t="array" ref="H7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I7" s="14">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99873540000000005</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J7" s="24">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="1">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
-        <v>964</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="E6" s="1">
-        <v>976</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>GRAVAT-RS525</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="14">
-        <f t="array" ref="H6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>3.8747E-4</v>
-      </c>
-      <c r="I6" s="14">
-        <f>1-Tabela6[[#This Row],[Q]]</f>
-        <v>0.99961253000000005</v>
-      </c>
-      <c r="J6" s="14">
-        <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="16">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28">
         <f>1-Tabela6[[#Totals],[P]]</f>
-        <v>4.1760499310664612E-3</v>
-      </c>
-      <c r="I7" s="16">
+        <v>5.4236181757127966E-3</v>
+      </c>
+      <c r="I8" s="28">
         <f>PRODUCT(Tabela6[P])</f>
-        <v>0.99582395006893354</v>
-      </c>
-      <c r="J7" s="16">
+        <v>0.9945763818242872</v>
+      </c>
+      <c r="J8" s="29">
         <f>Tabela6[[#Totals],[P]]+Tabela6[[#Totals],[Q]]</f>
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10">
+        <f>PRODUCT(Tabela6[P],Tabela14[P Eq])</f>
+        <v>0.9945472624124081</v>
+      </c>
+      <c r="J10" s="32">
+        <f>I10</f>
+        <v>0.9945472624124081</v>
+      </c>
+    </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L11" s="4"/>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11">
+        <f>1-I10</f>
+        <v>5.4527375875919049E-3</v>
+      </c>
+      <c r="J11" s="32">
+        <f>I11</f>
+        <v>5.4527375875919049E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26053,2606 +26709,1864 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7244C713-9829-49D0-8F24-8024894247D5}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="1">
-        <v>357</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="A2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="11">
+        <v>509</v>
+      </c>
+      <c r="C2" s="11">
+        <v>955</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="E2" s="11">
+        <v>946</v>
+      </c>
+      <c r="F2" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BIGUAC-SC525</v>
+      </c>
+      <c r="G2" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="H2" s="10">
+        <f t="array" ref="H2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.1535E-3</v>
+      </c>
+      <c r="I2" s="11">
+        <v>960</v>
+      </c>
+      <c r="J2" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CURITI-PR230</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1015</v>
+      </c>
+      <c r="L2" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>JOINOR-SC230</v>
+      </c>
+      <c r="M2" s="10">
+        <f t="array" ref="M2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.1535E-3</v>
+      </c>
+      <c r="N2" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>1.3305622500000001E-6</v>
+      </c>
+      <c r="O2" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999866943774995</v>
+      </c>
+      <c r="P2" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="11">
+        <v>517</v>
+      </c>
+      <c r="C3" s="11">
+        <v>955</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="E3" s="11">
+        <v>946</v>
+      </c>
+      <c r="F3" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BIGUAC-SC525</v>
+      </c>
+      <c r="G3" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="array" ref="H3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.1535E-3</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1010</v>
+      </c>
+      <c r="J3" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>JLAC-B-SC230</v>
+      </c>
+      <c r="K3" s="11">
+        <v>947</v>
+      </c>
+      <c r="L3" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BIGUAC-SC230</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="array" ref="M3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.1535E-3</v>
+      </c>
+      <c r="N3" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>1.3305622500000001E-6</v>
+      </c>
+      <c r="O3" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999866943774995</v>
+      </c>
+      <c r="P3" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="11">
+        <v>508</v>
+      </c>
+      <c r="C4" s="11">
+        <v>955</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="E4" s="11">
+        <v>946</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BIGUAC-SC525</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="array" ref="H4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.1535E-3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>959</v>
+      </c>
+      <c r="J4" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CURITI-PR525</v>
+      </c>
+      <c r="K4" s="11">
+        <v>895</v>
+      </c>
+      <c r="L4" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BATEIA-PR525</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="array" ref="M4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.1535E-3</v>
+      </c>
+      <c r="N4" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>1.3305622500000001E-6</v>
+      </c>
+      <c r="O4" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999866943774995</v>
+      </c>
+      <c r="P4" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="11">
+        <v>352</v>
+      </c>
+      <c r="C5" s="11">
         <v>933</v>
       </c>
-      <c r="D2" s="9" t="str">
+      <c r="D5" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E5" s="11">
         <v>955</v>
       </c>
-      <c r="F2" s="9" t="str">
+      <c r="F5" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G2" s="9">
-        <v>14.3</v>
-      </c>
-      <c r="H2" s="9">
-        <f t="array" ref="H2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+      <c r="G5" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="array" ref="H5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I5" s="11">
         <v>955</v>
       </c>
-      <c r="J2" s="9" t="str">
+      <c r="J5" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K5" s="11">
         <v>946</v>
       </c>
-      <c r="L2" s="9" t="str">
+      <c r="L5" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M2" s="9">
-        <f t="array" ref="M2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+      <c r="M5" s="10">
+        <f t="array" ref="M5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N5" s="10">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O5" s="13">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P5" s="13">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="1">
-        <v>521</v>
-      </c>
-      <c r="C3" s="9">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="11">
+        <v>349</v>
+      </c>
+      <c r="C6" s="11">
+        <v>933</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>AREIA--PR525</v>
+      </c>
+      <c r="E6" s="11">
         <v>955</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="F6" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="G6" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="array" ref="H6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>8.6647999999999998E-4</v>
+      </c>
+      <c r="I6" s="11">
+        <v>938</v>
+      </c>
+      <c r="J6" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BLUMEN-SC525</v>
+      </c>
+      <c r="K6" s="11">
+        <v>946</v>
+      </c>
+      <c r="L6" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BIGUAC-SC525</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="array" ref="M6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>8.6647999999999998E-4</v>
+      </c>
+      <c r="N6" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>7.5078759039999993E-7</v>
+      </c>
+      <c r="O6" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999924921240957</v>
+      </c>
+      <c r="P6" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="11">
+        <v>487</v>
+      </c>
+      <c r="C7" s="11">
+        <v>947</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BIGUAC-SC230</v>
+      </c>
+      <c r="E7" s="11">
+        <v>939</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BLUMEN-SC230</v>
+      </c>
+      <c r="G7" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="array" ref="H7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>3.3626000000000001E-4</v>
+      </c>
+      <c r="I7" s="11">
+        <v>955</v>
+      </c>
+      <c r="J7" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="K7" s="11">
+        <v>946</v>
+      </c>
+      <c r="L7" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BIGUAC-SC525</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="array" ref="M7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>3.3626000000000001E-4</v>
+      </c>
+      <c r="N7" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>1.1307078760000001E-7</v>
+      </c>
+      <c r="O7" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999988692921238</v>
+      </c>
+      <c r="P7" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="11">
+        <v>528</v>
+      </c>
+      <c r="C8" s="11">
+        <v>955</v>
+      </c>
+      <c r="D8" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E8" s="11">
+        <v>964</v>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CAXIAS-RS525</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="array" ref="H8">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>9.9905000000000002E-4</v>
+      </c>
+      <c r="I8" s="11">
+        <v>965</v>
+      </c>
+      <c r="J8" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CAXIAS-RS230</v>
+      </c>
+      <c r="K8" s="11">
+        <v>1057</v>
+      </c>
+      <c r="L8" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>SIDERO-SC230</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="array" ref="M8">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>9.9905000000000002E-4</v>
+      </c>
+      <c r="N8" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="O8" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999900189909752</v>
+      </c>
+      <c r="P8" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="11">
+        <v>449</v>
+      </c>
+      <c r="C9" s="11">
+        <v>938</v>
+      </c>
+      <c r="D9" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BLUMEN-SC525</v>
+      </c>
+      <c r="E9" s="11">
         <v>946</v>
       </c>
-      <c r="F3" s="9" t="str">
+      <c r="F9" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G3" s="9">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H3" s="9">
-        <f t="array" ref="H3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.1535E-3</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="G9" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="array" ref="H9">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>4.2778E-4</v>
+      </c>
+      <c r="I9" s="11">
         <v>960</v>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="J9" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR230</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K9" s="11">
         <v>1015</v>
       </c>
-      <c r="L3" s="9" t="str">
+      <c r="L9" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M3" s="9">
-        <f t="array" ref="M3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+      <c r="M9" s="10">
+        <f t="array" ref="M9">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>4.2778E-4</v>
+      </c>
+      <c r="N9" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>1.8299572840000001E-7</v>
+      </c>
+      <c r="O9" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999981700427165</v>
+      </c>
+      <c r="P9" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="11">
+        <v>470</v>
+      </c>
+      <c r="C10" s="11">
+        <v>938</v>
+      </c>
+      <c r="D10" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BLUMEN-SC525</v>
+      </c>
+      <c r="E10" s="11">
+        <v>955</v>
+      </c>
+      <c r="F10" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="G10" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="array" ref="H10">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.2405000000000001E-3</v>
+      </c>
+      <c r="I10" s="11">
+        <v>960</v>
+      </c>
+      <c r="J10" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CURITI-PR230</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1015</v>
+      </c>
+      <c r="L10" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>JOINOR-SC230</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="array" ref="M10">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.2405000000000001E-3</v>
+      </c>
+      <c r="N10" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>1.5388402500000001E-6</v>
+      </c>
+      <c r="O10" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999846115975</v>
+      </c>
+      <c r="P10" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="11">
+        <v>538</v>
+      </c>
+      <c r="C11" s="11">
+        <v>955</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="E11" s="11">
+        <v>964</v>
+      </c>
+      <c r="F11" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CAXIAS-RS525</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="array" ref="H11">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>9.9905000000000002E-4</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1047</v>
+      </c>
+      <c r="J11" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>SOSORIO-230</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1069</v>
+      </c>
+      <c r="L11" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>XANXER-SC230</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="array" ref="M11">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>9.9905000000000002E-4</v>
+      </c>
+      <c r="N11" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="O11" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999900189909752</v>
+      </c>
+      <c r="P11" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="11">
+        <v>507</v>
+      </c>
+      <c r="C12" s="11">
+        <v>955</v>
+      </c>
+      <c r="D12" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="E12" s="11">
+        <v>946</v>
+      </c>
+      <c r="F12" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BIGUAC-SC525</v>
+      </c>
+      <c r="G12" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="array" ref="H12">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N3" s="9">
+      <c r="I12" s="11">
+        <v>955</v>
+      </c>
+      <c r="J12" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="K12" s="11">
+        <v>964</v>
+      </c>
+      <c r="L12" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CAXIAS-RS525</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="array" ref="M12">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.1535E-3</v>
+      </c>
+      <c r="N12" s="10">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O12" s="13">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P12" s="13">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="1">
-        <v>355</v>
-      </c>
-      <c r="C4" s="9">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="11">
+        <v>297</v>
+      </c>
+      <c r="C13" s="11">
+        <v>856</v>
+      </c>
+      <c r="D13" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>SEGRED-PR525</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1060</v>
+      </c>
+      <c r="F13" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>SSANTI-PR525</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="array" ref="H13">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>2.9751000000000002E-4</v>
+      </c>
+      <c r="I13" s="11">
+        <v>938</v>
+      </c>
+      <c r="J13" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BLUMEN-SC525</v>
+      </c>
+      <c r="K13" s="11">
+        <v>955</v>
+      </c>
+      <c r="L13" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="array" ref="M13">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>2.9751000000000002E-4</v>
+      </c>
+      <c r="N13" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>8.8512200100000011E-8</v>
+      </c>
+      <c r="O13" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999991148779988</v>
+      </c>
+      <c r="P13" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="11">
+        <v>476</v>
+      </c>
+      <c r="C14" s="11">
+        <v>938</v>
+      </c>
+      <c r="D14" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BLUMEN-SC525</v>
+      </c>
+      <c r="E14" s="11">
+        <v>955</v>
+      </c>
+      <c r="F14" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="array" ref="H14">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.2405000000000001E-3</v>
+      </c>
+      <c r="I14" s="11">
+        <v>999</v>
+      </c>
+      <c r="J14" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>IVAIPE-PR525</v>
+      </c>
+      <c r="K14" s="11">
         <v>933</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="L14" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>AREIA--PR525</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="array" ref="M14">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.2405000000000001E-3</v>
+      </c>
+      <c r="N14" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>1.5388402500000001E-6</v>
+      </c>
+      <c r="O14" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999846115975</v>
+      </c>
+      <c r="P14" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="11">
+        <v>269</v>
+      </c>
+      <c r="C15" s="11">
+        <v>856</v>
+      </c>
+      <c r="D15" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>SEGRED-PR525</v>
+      </c>
+      <c r="E15" s="11">
+        <v>933</v>
+      </c>
+      <c r="F15" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>AREIA--PR525</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="array" ref="H15">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>2.7882999999999998E-4</v>
+      </c>
+      <c r="I15" s="11">
+        <v>938</v>
+      </c>
+      <c r="J15" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BLUMEN-SC525</v>
+      </c>
+      <c r="K15" s="11">
+        <v>955</v>
+      </c>
+      <c r="L15" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="array" ref="M15">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>2.7882999999999998E-4</v>
+      </c>
+      <c r="N15" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>7.7746168899999996E-8</v>
+      </c>
+      <c r="O15" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999992225383105</v>
+      </c>
+      <c r="P15" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="11">
+        <v>448</v>
+      </c>
+      <c r="C16" s="11">
+        <v>938</v>
+      </c>
+      <c r="D16" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BLUMEN-SC525</v>
+      </c>
+      <c r="E16" s="11">
+        <v>946</v>
+      </c>
+      <c r="F16" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BIGUAC-SC525</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="array" ref="H16">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>4.2778E-4</v>
+      </c>
+      <c r="I16" s="11">
+        <v>959</v>
+      </c>
+      <c r="J16" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CURITI-PR525</v>
+      </c>
+      <c r="K16" s="11">
+        <v>895</v>
+      </c>
+      <c r="L16" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BATEIA-PR525</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="array" ref="M16">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>4.2778E-4</v>
+      </c>
+      <c r="N16" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>1.8299572840000001E-7</v>
+      </c>
+      <c r="O16" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999981700427165</v>
+      </c>
+      <c r="P16" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="11">
+        <v>542</v>
+      </c>
+      <c r="C17" s="11">
+        <v>955</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="E17" s="11">
+        <v>964</v>
+      </c>
+      <c r="F17" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CAXIAS-RS525</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="array" ref="H17">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>9.9905000000000002E-4</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1041</v>
+      </c>
+      <c r="J17" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>PFUNDO-RS230</v>
+      </c>
+      <c r="K17" s="11">
+        <v>963</v>
+      </c>
+      <c r="L17" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>MCLARO-RS230</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="array" ref="M17">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>9.9905000000000002E-4</v>
+      </c>
+      <c r="N17" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="O17" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999900189909752</v>
+      </c>
+      <c r="P17" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="11">
+        <v>539</v>
+      </c>
+      <c r="C18" s="11">
+        <v>955</v>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="E18" s="11">
+        <v>964</v>
+      </c>
+      <c r="F18" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CAXIAS-RS525</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="array" ref="H18">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>9.9905000000000002E-4</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1057</v>
+      </c>
+      <c r="J18" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>SIDERO-SC230</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1010</v>
+      </c>
+      <c r="L18" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>JLAC-B-SC230</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="array" ref="M18">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>9.9905000000000002E-4</v>
+      </c>
+      <c r="N18" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="O18" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999900189909752</v>
+      </c>
+      <c r="P18" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="11">
+        <v>272</v>
+      </c>
+      <c r="C19" s="11">
+        <v>856</v>
+      </c>
+      <c r="D19" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>SEGRED-PR525</v>
+      </c>
+      <c r="E19" s="11">
+        <v>933</v>
+      </c>
+      <c r="F19" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>AREIA--PR525</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="array" ref="H19">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>2.7882999999999998E-4</v>
+      </c>
+      <c r="I19" s="11">
+        <v>955</v>
+      </c>
+      <c r="J19" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="K19" s="11">
+        <v>964</v>
+      </c>
+      <c r="L19" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CAXIAS-RS525</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="array" ref="M19">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>2.7882999999999998E-4</v>
+      </c>
+      <c r="N19" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>7.7746168899999996E-8</v>
+      </c>
+      <c r="O19" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999992225383105</v>
+      </c>
+      <c r="P19" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="11">
+        <v>541</v>
+      </c>
+      <c r="C20" s="11">
+        <v>955</v>
+      </c>
+      <c r="D20" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="E20" s="11">
+        <v>964</v>
+      </c>
+      <c r="F20" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CAXIAS-RS525</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="array" ref="H20">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>9.9905000000000002E-4</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1069</v>
+      </c>
+      <c r="J20" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>XANXER-SC230</v>
+      </c>
+      <c r="K20" s="11">
+        <v>1041</v>
+      </c>
+      <c r="L20" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>PFUNDO-RS230</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="array" ref="M20">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>9.9905000000000002E-4</v>
+      </c>
+      <c r="N20" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="O20" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999900189909752</v>
+      </c>
+      <c r="P20" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="11">
+        <v>353</v>
+      </c>
+      <c r="C21" s="11">
+        <v>933</v>
+      </c>
+      <c r="D21" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E21" s="11">
         <v>955</v>
       </c>
-      <c r="F4" s="9" t="str">
+      <c r="F21" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G4" s="9">
-        <v>7.2</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="array" ref="H4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="array" ref="H21">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I21" s="11">
+        <v>955</v>
+      </c>
+      <c r="J21" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="K21" s="11">
+        <v>964</v>
+      </c>
+      <c r="L21" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CAXIAS-RS525</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="array" ref="M21">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>8.6647999999999998E-4</v>
+      </c>
+      <c r="N21" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>7.5078759039999993E-7</v>
+      </c>
+      <c r="O21" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999924921240957</v>
+      </c>
+      <c r="P21" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="11">
+        <v>468</v>
+      </c>
+      <c r="C22" s="11">
         <v>938</v>
       </c>
-      <c r="J4" s="9" t="str">
+      <c r="D22" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BLUMEN-SC525</v>
+      </c>
+      <c r="E22" s="11">
+        <v>955</v>
+      </c>
+      <c r="F22" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="array" ref="H22">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.2405000000000001E-3</v>
+      </c>
+      <c r="I22" s="11">
+        <v>955</v>
+      </c>
+      <c r="J22" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="K22" s="11">
+        <v>964</v>
+      </c>
+      <c r="L22" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CAXIAS-RS525</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="array" ref="M22">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.2405000000000001E-3</v>
+      </c>
+      <c r="N22" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>1.5388402500000001E-6</v>
+      </c>
+      <c r="O22" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999846115975</v>
+      </c>
+      <c r="P22" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="11">
+        <v>638</v>
+      </c>
+      <c r="C23" s="11">
+        <v>999</v>
+      </c>
+      <c r="D23" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>IVAIPE-PR525</v>
+      </c>
+      <c r="E23" s="11">
+        <v>896</v>
+      </c>
+      <c r="F23" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CASCOE-PR525</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="10">
+        <f t="array" ref="H23">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.0269999999999999E-3</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1060</v>
+      </c>
+      <c r="J23" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>SSANTI-PR525</v>
+      </c>
+      <c r="K23" s="11">
+        <v>897</v>
+      </c>
+      <c r="L23" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>SCAXIA-PR525</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="array" ref="M23">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.0269999999999999E-3</v>
+      </c>
+      <c r="N23" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>1.0547289999999998E-6</v>
+      </c>
+      <c r="O23" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999894527099997</v>
+      </c>
+      <c r="P23" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="11">
+        <v>529</v>
+      </c>
+      <c r="C24" s="11">
+        <v>955</v>
+      </c>
+      <c r="D24" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="E24" s="11">
+        <v>964</v>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CAXIAS-RS525</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="10">
+        <f t="array" ref="H24">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>9.9905000000000002E-4</v>
+      </c>
+      <c r="I24" s="11">
+        <v>976</v>
+      </c>
+      <c r="J24" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>GRAVAT-RS525</v>
+      </c>
+      <c r="K24" s="11">
+        <v>979</v>
+      </c>
+      <c r="L24" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>NSRITA-RS525</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="array" ref="M24">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>9.9905000000000002E-4</v>
+      </c>
+      <c r="N24" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="O24" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999900189909752</v>
+      </c>
+      <c r="P24" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="11">
+        <v>467</v>
+      </c>
+      <c r="C25" s="11">
+        <v>938</v>
+      </c>
+      <c r="D25" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BLUMEN-SC525</v>
+      </c>
+      <c r="E25" s="11">
+        <v>955</v>
+      </c>
+      <c r="F25" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="10">
+        <f t="array" ref="H25">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.2405000000000001E-3</v>
+      </c>
+      <c r="I25" s="11">
+        <v>955</v>
+      </c>
+      <c r="J25" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="K25" s="11">
+        <v>946</v>
+      </c>
+      <c r="L25" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BIGUAC-SC525</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="array" ref="M25">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.2405000000000001E-3</v>
+      </c>
+      <c r="N25" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>1.5388402500000001E-6</v>
+      </c>
+      <c r="O25" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999846115975</v>
+      </c>
+      <c r="P25" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="11">
+        <v>446</v>
+      </c>
+      <c r="C26" s="11">
+        <v>938</v>
+      </c>
+      <c r="D26" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BLUMEN-SC525</v>
+      </c>
+      <c r="E26" s="11">
+        <v>946</v>
+      </c>
+      <c r="F26" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BIGUAC-SC525</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="10">
+        <f t="array" ref="H26">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>4.2778E-4</v>
+      </c>
+      <c r="I26" s="11">
+        <v>955</v>
+      </c>
+      <c r="J26" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="K26" s="11">
+        <v>946</v>
+      </c>
+      <c r="L26" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BIGUAC-SC525</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="array" ref="M26">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>4.2778E-4</v>
+      </c>
+      <c r="N26" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>1.8299572840000001E-7</v>
+      </c>
+      <c r="O26" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999981700427165</v>
+      </c>
+      <c r="P26" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="11">
+        <v>444</v>
+      </c>
+      <c r="C27" s="11">
+        <v>938</v>
+      </c>
+      <c r="D27" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BLUMEN-SC525</v>
+      </c>
+      <c r="E27" s="11">
+        <v>946</v>
+      </c>
+      <c r="F27" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BIGUAC-SC525</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="10">
+        <f t="array" ref="H27">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>4.2778E-4</v>
+      </c>
+      <c r="I27" s="11">
+        <v>938</v>
+      </c>
+      <c r="J27" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K27" s="11">
         <v>955</v>
       </c>
-      <c r="L4" s="9" t="str">
+      <c r="L27" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M4" s="9">
-        <f t="array" ref="M4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>8.6647999999999998E-4</v>
-      </c>
-      <c r="N4" s="9">
+      <c r="M27" s="10">
+        <f t="array" ref="M27">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>4.2778E-4</v>
+      </c>
+      <c r="N27" s="10">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>7.5078759039999993E-7</v>
-      </c>
-      <c r="O4" s="10">
+        <v>1.8299572840000001E-7</v>
+      </c>
+      <c r="O27" s="13">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999924921240957</v>
-      </c>
-      <c r="P4" s="10">
+        <v>0.99999981700427165</v>
+      </c>
+      <c r="P27" s="13">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="1">
-        <v>530</v>
-      </c>
-      <c r="C5" s="9">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="11">
+        <v>377</v>
+      </c>
+      <c r="C28" s="11">
+        <v>933</v>
+      </c>
+      <c r="D28" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>AREIA--PR525</v>
+      </c>
+      <c r="E28" s="11">
+        <v>959</v>
+      </c>
+      <c r="F28" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CURITI-PR525</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="10">
+        <f t="array" ref="H28">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.1555999999999999E-3</v>
+      </c>
+      <c r="I28" s="11">
         <v>955</v>
       </c>
-      <c r="D5" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="E5" s="9">
-        <v>946</v>
-      </c>
-      <c r="F5" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC525</v>
-      </c>
-      <c r="G5" s="9">
-        <v>6.8</v>
-      </c>
-      <c r="H5" s="9">
-        <f t="array" ref="H5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.1535E-3</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1010</v>
-      </c>
-      <c r="J5" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>JLAC-B-SC230</v>
-      </c>
-      <c r="K5" s="9">
-        <v>947</v>
-      </c>
-      <c r="L5" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC230</v>
-      </c>
-      <c r="M5" s="9">
-        <f t="array" ref="M5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.1535E-3</v>
-      </c>
-      <c r="N5" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.3305622500000001E-6</v>
-      </c>
-      <c r="O5" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999866943774995</v>
-      </c>
-      <c r="P5" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="1">
-        <v>273</v>
-      </c>
-      <c r="C6" s="9">
-        <v>856</v>
-      </c>
-      <c r="D6" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SEGRED-PR525</v>
-      </c>
-      <c r="E6" s="9">
-        <v>933</v>
-      </c>
-      <c r="F6" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>AREIA--PR525</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5.4</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="array" ref="H6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>2.7882999999999998E-4</v>
-      </c>
-      <c r="I6" s="9">
-        <v>955</v>
-      </c>
-      <c r="J6" s="9" t="str">
+      <c r="J28" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K28" s="11">
         <v>946</v>
       </c>
-      <c r="L6" s="9" t="str">
+      <c r="L28" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M6" s="9">
-        <f t="array" ref="M6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>2.7882999999999998E-4</v>
-      </c>
-      <c r="N6" s="9">
+      <c r="M28" s="10">
+        <f t="array" ref="M28">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.1555999999999999E-3</v>
+      </c>
+      <c r="N28" s="10">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>7.7746168899999996E-8</v>
-      </c>
-      <c r="O6" s="10">
+        <v>1.3354113599999999E-6</v>
+      </c>
+      <c r="O28" s="13">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999992225383105</v>
-      </c>
-      <c r="P6" s="10">
+        <v>0.99999866458863995</v>
+      </c>
+      <c r="P28" s="13">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="1">
-        <v>520</v>
-      </c>
-      <c r="C7" s="9">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="11">
+        <v>375</v>
+      </c>
+      <c r="C29" s="11">
+        <v>933</v>
+      </c>
+      <c r="D29" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>AREIA--PR525</v>
+      </c>
+      <c r="E29" s="11">
+        <v>959</v>
+      </c>
+      <c r="F29" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CURITI-PR525</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="10">
+        <f t="array" ref="H29">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.1555999999999999E-3</v>
+      </c>
+      <c r="I29" s="11">
+        <v>938</v>
+      </c>
+      <c r="J29" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BLUMEN-SC525</v>
+      </c>
+      <c r="K29" s="11">
         <v>955</v>
       </c>
-      <c r="D7" s="9" t="str">
+      <c r="L29" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>CNOVOS-SC525</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="array" ref="M29">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.1555999999999999E-3</v>
+      </c>
+      <c r="N29" s="10">
+        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
+        <v>1.3354113599999999E-6</v>
+      </c>
+      <c r="O29" s="13">
+        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
+        <v>0.99999866458863995</v>
+      </c>
+      <c r="P29" s="13">
+        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="11">
+        <v>326</v>
+      </c>
+      <c r="C30" s="11">
+        <v>933</v>
+      </c>
+      <c r="D30" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="E7" s="9">
-        <v>946</v>
-      </c>
-      <c r="F7" s="9" t="str">
+        <v>AREIA--PR525</v>
+      </c>
+      <c r="E30" s="11">
+        <v>895</v>
+      </c>
+      <c r="F30" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC525</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5.3</v>
-      </c>
-      <c r="H7" s="9">
-        <f t="array" ref="H7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.1535E-3</v>
-      </c>
-      <c r="I7" s="9">
-        <v>959</v>
-      </c>
-      <c r="J7" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CURITI-PR525</v>
-      </c>
-      <c r="K7" s="9">
-        <v>895</v>
-      </c>
-      <c r="L7" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="M7" s="9">
-        <f t="array" ref="M7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.1535E-3</v>
-      </c>
-      <c r="N7" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.3305622500000001E-6</v>
-      </c>
-      <c r="O7" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999866943774995</v>
-      </c>
-      <c r="P7" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="1">
-        <v>458</v>
-      </c>
-      <c r="C8" s="9">
-        <v>938</v>
-      </c>
-      <c r="D8" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC525</v>
-      </c>
-      <c r="E8" s="9">
-        <v>946</v>
-      </c>
-      <c r="F8" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC525</v>
-      </c>
-      <c r="G8" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="array" ref="H8">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.2778E-4</v>
-      </c>
-      <c r="I8" s="9">
-        <v>960</v>
-      </c>
-      <c r="J8" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CURITI-PR230</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1015</v>
-      </c>
-      <c r="L8" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>JOINOR-SC230</v>
-      </c>
-      <c r="M8" s="9">
-        <f t="array" ref="M8">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.2778E-4</v>
-      </c>
-      <c r="N8" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.8299572840000001E-7</v>
-      </c>
-      <c r="O8" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999981700427165</v>
-      </c>
-      <c r="P8" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="1">
-        <v>480</v>
-      </c>
-      <c r="C9" s="9">
-        <v>938</v>
-      </c>
-      <c r="D9" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC525</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="G30" s="11"/>
+      <c r="H30" s="10">
+        <f t="array" ref="H30">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.2577000000000001E-3</v>
+      </c>
+      <c r="I30" s="11">
         <v>955</v>
       </c>
-      <c r="F9" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="G9" s="9">
-        <v>3.8</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="array" ref="H9">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.2405000000000001E-3</v>
-      </c>
-      <c r="I9" s="9">
-        <v>960</v>
-      </c>
-      <c r="J9" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CURITI-PR230</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1015</v>
-      </c>
-      <c r="L9" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>JOINOR-SC230</v>
-      </c>
-      <c r="M9" s="9">
-        <f t="array" ref="M9">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.2405000000000001E-3</v>
-      </c>
-      <c r="N9" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.5388402500000001E-6</v>
-      </c>
-      <c r="O9" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999846115975</v>
-      </c>
-      <c r="P9" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="1">
-        <v>498</v>
-      </c>
-      <c r="C10" s="9">
-        <v>947</v>
-      </c>
-      <c r="D10" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC230</v>
-      </c>
-      <c r="E10" s="9">
-        <v>939</v>
-      </c>
-      <c r="F10" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC230</v>
-      </c>
-      <c r="G10" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="array" ref="H10">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>3.3626000000000001E-4</v>
-      </c>
-      <c r="I10" s="9">
-        <v>955</v>
-      </c>
-      <c r="J10" s="9" t="str">
+      <c r="J30" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K30" s="11">
         <v>946</v>
       </c>
-      <c r="L10" s="9" t="str">
+      <c r="L30" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M10" s="9">
-        <f t="array" ref="M10">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>3.3626000000000001E-4</v>
-      </c>
-      <c r="N10" s="9">
+      <c r="M30" s="10">
+        <f t="array" ref="M30">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.2577000000000001E-3</v>
+      </c>
+      <c r="N30" s="10">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.1307078760000001E-7</v>
-      </c>
-      <c r="O10" s="10">
+        <v>1.5818092900000001E-6</v>
+      </c>
+      <c r="O30" s="13">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999988692921238</v>
-      </c>
-      <c r="P10" s="10">
+        <v>0.99999841819071</v>
+      </c>
+      <c r="P30" s="13">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="1">
-        <v>594</v>
-      </c>
-      <c r="C11" s="9">
-        <v>965</v>
-      </c>
-      <c r="D11" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS230</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1057</v>
-      </c>
-      <c r="F11" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SIDERO-SC230</v>
-      </c>
-      <c r="G11" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="H11" s="9">
-        <f t="array" ref="H11">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>5.6384999999999996E-4</v>
-      </c>
-      <c r="I11" s="9">
-        <v>955</v>
-      </c>
-      <c r="J11" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="K11" s="9">
-        <v>964</v>
-      </c>
-      <c r="L11" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="M11" s="9">
-        <f t="array" ref="M11">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>5.6384999999999996E-4</v>
-      </c>
-      <c r="N11" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>3.1792682249999995E-7</v>
-      </c>
-      <c r="O11" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999968207317746</v>
-      </c>
-      <c r="P11" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="1">
-        <v>541</v>
-      </c>
-      <c r="C12" s="9">
-        <v>955</v>
-      </c>
-      <c r="D12" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="E12" s="9">
-        <v>964</v>
-      </c>
-      <c r="F12" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="G12" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="H12" s="9">
-        <f t="array" ref="H12">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="I12" s="9">
-        <v>965</v>
-      </c>
-      <c r="J12" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS230</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1057</v>
-      </c>
-      <c r="L12" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SIDERO-SC230</v>
-      </c>
-      <c r="M12" s="9">
-        <f t="array" ref="M12">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="N12" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>9.9810090250000007E-7</v>
-      </c>
-      <c r="O12" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999900189909752</v>
-      </c>
-      <c r="P12" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="1">
-        <v>457</v>
-      </c>
-      <c r="C13" s="9">
-        <v>938</v>
-      </c>
-      <c r="D13" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC525</v>
-      </c>
-      <c r="E13" s="9">
-        <v>946</v>
-      </c>
-      <c r="F13" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC525</v>
-      </c>
-      <c r="G13" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="H13" s="9">
-        <f t="array" ref="H13">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.2778E-4</v>
-      </c>
-      <c r="I13" s="9">
-        <v>959</v>
-      </c>
-      <c r="J13" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CURITI-PR525</v>
-      </c>
-      <c r="K13" s="9">
-        <v>895</v>
-      </c>
-      <c r="L13" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BATEIA-PR525</v>
-      </c>
-      <c r="M13" s="9">
-        <f t="array" ref="M13">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.2778E-4</v>
-      </c>
-      <c r="N13" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.8299572840000001E-7</v>
-      </c>
-      <c r="O13" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999981700427165</v>
-      </c>
-      <c r="P13" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="1">
-        <v>380</v>
-      </c>
-      <c r="C14" s="9">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="11">
+        <v>324</v>
+      </c>
+      <c r="C31" s="11">
         <v>933</v>
       </c>
-      <c r="D14" s="9" t="str">
+      <c r="D31" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E31" s="11">
+        <v>895</v>
+      </c>
+      <c r="F31" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>BATEIA-PR525</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="10">
+        <f t="array" ref="H31">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.2577000000000001E-3</v>
+      </c>
+      <c r="I31" s="11">
+        <v>933</v>
+      </c>
+      <c r="J31" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+        <v>AREIA--PR525</v>
+      </c>
+      <c r="K31" s="11">
         <v>959</v>
       </c>
-      <c r="F14" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
+      <c r="L31" s="10" t="str">
+        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="G14" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="H14" s="9">
-        <f t="array" ref="H14">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.1555999999999999E-3</v>
-      </c>
-      <c r="I14" s="9">
-        <v>938</v>
-      </c>
-      <c r="J14" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC525</v>
-      </c>
-      <c r="K14" s="9">
-        <v>946</v>
-      </c>
-      <c r="L14" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC525</v>
-      </c>
-      <c r="M14" s="9">
-        <f t="array" ref="M14">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.1555999999999999E-3</v>
-      </c>
-      <c r="N14" s="9">
+      <c r="M31" s="10">
+        <f t="array" ref="M31">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>1.2577000000000001E-3</v>
+      </c>
+      <c r="N31" s="10">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.3354113599999999E-6</v>
-      </c>
-      <c r="O14" s="10">
+        <v>1.5818092900000001E-6</v>
+      </c>
+      <c r="O31" s="13">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999866458863995</v>
-      </c>
-      <c r="P14" s="10">
+        <v>0.99999841819071</v>
+      </c>
+      <c r="P31" s="13">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="1">
-        <v>479</v>
-      </c>
-      <c r="C15" s="9">
-        <v>938</v>
-      </c>
-      <c r="D15" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC525</v>
-      </c>
-      <c r="E15" s="9">
-        <v>955</v>
-      </c>
-      <c r="F15" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="H15" s="9">
-        <f t="array" ref="H15">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.2405000000000001E-3</v>
-      </c>
-      <c r="I15" s="9">
-        <v>959</v>
-      </c>
-      <c r="J15" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CURITI-PR525</v>
-      </c>
-      <c r="K15" s="9">
-        <v>895</v>
-      </c>
-      <c r="L15" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BATEIA-PR525</v>
-      </c>
-      <c r="M15" s="9">
-        <f t="array" ref="M15">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.2405000000000001E-3</v>
-      </c>
-      <c r="N15" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.5388402500000001E-6</v>
-      </c>
-      <c r="O15" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999846115975</v>
-      </c>
-      <c r="P15" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="1">
-        <v>271</v>
-      </c>
-      <c r="C16" s="9">
-        <v>856</v>
-      </c>
-      <c r="D16" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SEGRED-PR525</v>
-      </c>
-      <c r="E16" s="9">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="11">
+        <v>320</v>
+      </c>
+      <c r="C32" s="11">
         <v>933</v>
       </c>
-      <c r="F16" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>AREIA--PR525</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="H16" s="9">
-        <f t="array" ref="H16">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>2.7882999999999998E-4</v>
-      </c>
-      <c r="I16" s="9">
-        <v>938</v>
-      </c>
-      <c r="J16" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC525</v>
-      </c>
-      <c r="K16" s="9">
-        <v>955</v>
-      </c>
-      <c r="L16" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="M16" s="9">
-        <f t="array" ref="M16">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>2.7882999999999998E-4</v>
-      </c>
-      <c r="N16" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>7.7746168899999996E-8</v>
-      </c>
-      <c r="O16" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999992225383105</v>
-      </c>
-      <c r="P16" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="1">
-        <v>454</v>
-      </c>
-      <c r="C17" s="9">
-        <v>938</v>
-      </c>
-      <c r="D17" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC525</v>
-      </c>
-      <c r="E17" s="9">
-        <v>946</v>
-      </c>
-      <c r="F17" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC525</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="H17" s="9">
-        <f t="array" ref="H17">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.2778E-4</v>
-      </c>
-      <c r="I17" s="9">
-        <v>947</v>
-      </c>
-      <c r="J17" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC230</v>
-      </c>
-      <c r="K17" s="9">
-        <v>939</v>
-      </c>
-      <c r="L17" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC230</v>
-      </c>
-      <c r="M17" s="9">
-        <f t="array" ref="M17">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.2778E-4</v>
-      </c>
-      <c r="N17" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.8299572840000001E-7</v>
-      </c>
-      <c r="O17" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999981700427165</v>
-      </c>
-      <c r="P17" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="1">
-        <v>363</v>
-      </c>
-      <c r="C18" s="9">
-        <v>933</v>
-      </c>
-      <c r="D18" s="9" t="str">
+      <c r="D32" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E18" s="9">
-        <v>955</v>
-      </c>
-      <c r="F18" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="H18" s="9">
-        <f t="array" ref="H18">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>8.6647999999999998E-4</v>
-      </c>
-      <c r="I18" s="9">
-        <v>955</v>
-      </c>
-      <c r="J18" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="K18" s="9">
-        <v>964</v>
-      </c>
-      <c r="L18" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="M18" s="9">
-        <f t="array" ref="M18">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>8.6647999999999998E-4</v>
-      </c>
-      <c r="N18" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>7.5078759039999993E-7</v>
-      </c>
-      <c r="O18" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999924921240957</v>
-      </c>
-      <c r="P18" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="1">
-        <v>358</v>
-      </c>
-      <c r="C19" s="9">
-        <v>933</v>
-      </c>
-      <c r="D19" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>AREIA--PR525</v>
-      </c>
-      <c r="E19" s="9">
-        <v>955</v>
-      </c>
-      <c r="F19" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="H19" s="9">
-        <f t="array" ref="H19">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>8.6647999999999998E-4</v>
-      </c>
-      <c r="I19" s="9">
-        <v>955</v>
-      </c>
-      <c r="J19" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="K19" s="9">
-        <v>964</v>
-      </c>
-      <c r="L19" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="M19" s="9">
-        <f t="array" ref="M19">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>8.6647999999999998E-4</v>
-      </c>
-      <c r="N19" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>7.5078759039999993E-7</v>
-      </c>
-      <c r="O19" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999924921240957</v>
-      </c>
-      <c r="P19" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="1">
-        <v>632</v>
-      </c>
-      <c r="C20" s="9">
-        <v>955</v>
-      </c>
-      <c r="D20" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="E20" s="9">
-        <v>964</v>
-      </c>
-      <c r="F20" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="H20" s="9">
-        <f t="array" ref="H20">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="I20" s="9">
-        <v>1047</v>
-      </c>
-      <c r="J20" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SOSORIO-230</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1069</v>
-      </c>
-      <c r="L20" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>XANXER-SC230</v>
-      </c>
-      <c r="M20" s="9">
-        <f t="array" ref="M20">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="N20" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>9.9810090250000007E-7</v>
-      </c>
-      <c r="O20" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999900189909752</v>
-      </c>
-      <c r="P20" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="1">
-        <v>552</v>
-      </c>
-      <c r="C21" s="9">
-        <v>955</v>
-      </c>
-      <c r="D21" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="E21" s="9">
-        <v>964</v>
-      </c>
-      <c r="F21" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="G21" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="H21" s="9">
-        <f t="array" ref="H21">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="I21" s="9">
-        <v>1047</v>
-      </c>
-      <c r="J21" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SOSORIO-230</v>
-      </c>
-      <c r="K21" s="9">
-        <v>1069</v>
-      </c>
-      <c r="L21" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>XANXER-SC230</v>
-      </c>
-      <c r="M21" s="9">
-        <f t="array" ref="M21">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="N21" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>9.9810090250000007E-7</v>
-      </c>
-      <c r="O21" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999900189909752</v>
-      </c>
-      <c r="P21" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="1">
-        <v>279</v>
-      </c>
-      <c r="C22" s="9">
-        <v>856</v>
-      </c>
-      <c r="D22" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SEGRED-PR525</v>
-      </c>
-      <c r="E22" s="9">
-        <v>933</v>
-      </c>
-      <c r="F22" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>AREIA--PR525</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="H22" s="9">
-        <f t="array" ref="H22">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>2.7882999999999998E-4</v>
-      </c>
-      <c r="I22" s="9">
-        <v>955</v>
-      </c>
-      <c r="J22" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="K22" s="9">
-        <v>964</v>
-      </c>
-      <c r="L22" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="M22" s="9">
-        <f t="array" ref="M22">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>2.7882999999999998E-4</v>
-      </c>
-      <c r="N22" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>7.7746168899999996E-8</v>
-      </c>
-      <c r="O22" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999992225383105</v>
-      </c>
-      <c r="P22" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="1">
-        <v>274</v>
-      </c>
-      <c r="C23" s="9">
-        <v>856</v>
-      </c>
-      <c r="D23" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SEGRED-PR525</v>
-      </c>
-      <c r="E23" s="9">
-        <v>933</v>
-      </c>
-      <c r="F23" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>AREIA--PR525</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="H23" s="9">
-        <f t="array" ref="H23">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>2.7882999999999998E-4</v>
-      </c>
-      <c r="I23" s="9">
-        <v>955</v>
-      </c>
-      <c r="J23" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="K23" s="9">
-        <v>964</v>
-      </c>
-      <c r="L23" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="M23" s="9">
-        <f t="array" ref="M23">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>2.7882999999999998E-4</v>
-      </c>
-      <c r="N23" s="9">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>7.7746168899999996E-8</v>
-      </c>
-      <c r="O23" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999992225383105</v>
-      </c>
-      <c r="P23" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="1">
-        <v>462</v>
-      </c>
-      <c r="C24" s="9">
-        <v>938</v>
-      </c>
-      <c r="D24" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC525</v>
-      </c>
-      <c r="E24" s="9">
-        <v>946</v>
-      </c>
-      <c r="F24" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC525</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="array" ref="H24">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.2778E-4</v>
-      </c>
-      <c r="I24" s="9">
-        <v>995</v>
-      </c>
-      <c r="J24" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>ITA-----0425</v>
-      </c>
-      <c r="K24" s="9">
-        <v>1030</v>
-      </c>
-      <c r="L24" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>MACHAD-SC525</v>
-      </c>
-      <c r="M24" s="9">
-        <f t="array" ref="M24">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.2778E-4</v>
-      </c>
-      <c r="N24" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.8299572840000001E-7</v>
-      </c>
-      <c r="O24" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999981700427165</v>
-      </c>
-      <c r="P24" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="1">
-        <v>636</v>
-      </c>
-      <c r="C25" s="9">
-        <v>955</v>
-      </c>
-      <c r="D25" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="E25" s="9">
-        <v>964</v>
-      </c>
-      <c r="F25" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="G25" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H25" s="9">
-        <f t="array" ref="H25">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="I25" s="9">
-        <v>1041</v>
-      </c>
-      <c r="J25" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>PFUNDO-RS230</v>
-      </c>
-      <c r="K25" s="9">
-        <v>963</v>
-      </c>
-      <c r="L25" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>MCLARO-RS230</v>
-      </c>
-      <c r="M25" s="9">
-        <f t="array" ref="M25">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="N25" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>9.9810090250000007E-7</v>
-      </c>
-      <c r="O25" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999900189909752</v>
-      </c>
-      <c r="P25" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="1">
-        <v>556</v>
-      </c>
-      <c r="C26" s="9">
-        <v>955</v>
-      </c>
-      <c r="D26" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="E26" s="9">
-        <v>964</v>
-      </c>
-      <c r="F26" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="G26" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H26" s="9">
-        <f t="array" ref="H26">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="I26" s="9">
-        <v>1041</v>
-      </c>
-      <c r="J26" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>PFUNDO-RS230</v>
-      </c>
-      <c r="K26" s="9">
-        <v>963</v>
-      </c>
-      <c r="L26" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>MCLARO-RS230</v>
-      </c>
-      <c r="M26" s="9">
-        <f t="array" ref="M26">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="N26" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>9.9810090250000007E-7</v>
-      </c>
-      <c r="O26" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999900189909752</v>
-      </c>
-      <c r="P26" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="1">
-        <v>633</v>
-      </c>
-      <c r="C27" s="9">
-        <v>955</v>
-      </c>
-      <c r="D27" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="E27" s="9">
-        <v>964</v>
-      </c>
-      <c r="F27" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="array" ref="H27">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="I27" s="9">
-        <v>1057</v>
-      </c>
-      <c r="J27" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SIDERO-SC230</v>
-      </c>
-      <c r="K27" s="9">
-        <v>1010</v>
-      </c>
-      <c r="L27" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>JLAC-B-SC230</v>
-      </c>
-      <c r="M27" s="9">
-        <f t="array" ref="M27">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="N27" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>9.9810090250000007E-7</v>
-      </c>
-      <c r="O27" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999900189909752</v>
-      </c>
-      <c r="P27" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="1">
-        <v>553</v>
-      </c>
-      <c r="C28" s="9">
-        <v>955</v>
-      </c>
-      <c r="D28" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="E28" s="9">
-        <v>964</v>
-      </c>
-      <c r="F28" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="G28" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H28" s="9">
-        <f t="array" ref="H28">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="I28" s="9">
-        <v>1057</v>
-      </c>
-      <c r="J28" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SIDERO-SC230</v>
-      </c>
-      <c r="K28" s="9">
-        <v>1010</v>
-      </c>
-      <c r="L28" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>JLAC-B-SC230</v>
-      </c>
-      <c r="M28" s="9">
-        <f t="array" ref="M28">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="N28" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>9.9810090250000007E-7</v>
-      </c>
-      <c r="O28" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999900189909752</v>
-      </c>
-      <c r="P28" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="1">
-        <v>405</v>
-      </c>
-      <c r="C29" s="9">
-        <v>934</v>
-      </c>
-      <c r="D29" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>AREIA-230</v>
-      </c>
-      <c r="E29" s="9">
-        <v>960</v>
-      </c>
-      <c r="F29" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CURITI-PR230</v>
-      </c>
-      <c r="G29" s="9">
-        <v>1</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="array" ref="H29">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>6.5850000000000001E-4</v>
-      </c>
-      <c r="I29" s="9">
-        <v>938</v>
-      </c>
-      <c r="J29" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC525</v>
-      </c>
-      <c r="K29" s="9">
-        <v>946</v>
-      </c>
-      <c r="L29" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC525</v>
-      </c>
-      <c r="M29" s="9">
-        <f t="array" ref="M29">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>6.5850000000000001E-4</v>
-      </c>
-      <c r="N29" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>4.3362225E-7</v>
-      </c>
-      <c r="O29" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999956637775</v>
-      </c>
-      <c r="P29" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="1">
-        <v>635</v>
-      </c>
-      <c r="C30" s="9">
-        <v>955</v>
-      </c>
-      <c r="D30" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="E30" s="9">
-        <v>964</v>
-      </c>
-      <c r="F30" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="G30" s="9">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="array" ref="H30">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="I30" s="9">
-        <v>1069</v>
-      </c>
-      <c r="J30" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>XANXER-SC230</v>
-      </c>
-      <c r="K30" s="9">
-        <v>1041</v>
-      </c>
-      <c r="L30" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>PFUNDO-RS230</v>
-      </c>
-      <c r="M30" s="9">
-        <f t="array" ref="M30">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="N30" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>9.9810090250000007E-7</v>
-      </c>
-      <c r="O30" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999900189909752</v>
-      </c>
-      <c r="P30" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="1">
-        <v>555</v>
-      </c>
-      <c r="C31" s="9">
-        <v>955</v>
-      </c>
-      <c r="D31" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="E31" s="9">
-        <v>964</v>
-      </c>
-      <c r="F31" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="G31" s="9">
-        <v>1</v>
-      </c>
-      <c r="H31" s="9">
-        <f t="array" ref="H31">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="I31" s="9">
-        <v>1069</v>
-      </c>
-      <c r="J31" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>XANXER-SC230</v>
-      </c>
-      <c r="K31" s="9">
-        <v>1041</v>
-      </c>
-      <c r="L31" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>PFUNDO-RS230</v>
-      </c>
-      <c r="M31" s="9">
-        <f t="array" ref="M31">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="N31" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>9.9810090250000007E-7</v>
-      </c>
-      <c r="O31" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999900189909752</v>
-      </c>
-      <c r="P31" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="1">
-        <v>283</v>
-      </c>
-      <c r="C32" s="9">
-        <v>856</v>
-      </c>
-      <c r="D32" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SEGRED-PR525</v>
-      </c>
-      <c r="E32" s="9">
-        <v>933</v>
-      </c>
-      <c r="F32" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>AREIA--PR525</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" s="9">
-        <f t="array" ref="H32">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>2.7882999999999998E-4</v>
-      </c>
-      <c r="I32" s="9">
-        <v>999</v>
-      </c>
-      <c r="J32" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>IVAIPE-PR525</v>
-      </c>
-      <c r="K32" s="9">
-        <v>933</v>
-      </c>
-      <c r="L32" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>AREIA--PR525</v>
-      </c>
-      <c r="M32" s="9">
-        <f t="array" ref="M32">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>2.7882999999999998E-4</v>
-      </c>
-      <c r="N32" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>7.7746168899999996E-8</v>
-      </c>
-      <c r="O32" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999992225383105</v>
-      </c>
-      <c r="P32" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="1">
-        <v>725</v>
-      </c>
-      <c r="C33" s="9">
-        <v>1060</v>
-      </c>
-      <c r="D33" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SSANTI-PR525</v>
-      </c>
-      <c r="E33" s="9">
-        <v>897</v>
-      </c>
-      <c r="F33" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SCAXIA-PR525</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" s="9">
-        <f t="array" ref="H33">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.4252000000000001E-4</v>
-      </c>
-      <c r="I33" s="9">
-        <v>963</v>
-      </c>
-      <c r="J33" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>MCLARO-RS230</v>
-      </c>
-      <c r="K33" s="9">
-        <v>965</v>
-      </c>
-      <c r="L33" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS230</v>
-      </c>
-      <c r="M33" s="9">
-        <f t="array" ref="M33">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.4252000000000001E-4</v>
-      </c>
-      <c r="N33" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.958239504E-7</v>
-      </c>
-      <c r="O33" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999980417604961</v>
-      </c>
-      <c r="P33" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="1">
-        <v>449</v>
-      </c>
-      <c r="C34" s="9">
-        <v>934</v>
-      </c>
-      <c r="D34" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>AREIA-230</v>
-      </c>
-      <c r="E34" s="9">
-        <v>1047</v>
-      </c>
-      <c r="F34" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SOSORIO-230</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="9">
-        <f t="array" ref="H34">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.2973000000000002E-4</v>
-      </c>
-      <c r="I34" s="9">
-        <v>1060</v>
-      </c>
-      <c r="J34" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SSANTI-PR525</v>
-      </c>
-      <c r="K34" s="9">
-        <v>897</v>
-      </c>
-      <c r="L34" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SCAXIA-PR525</v>
-      </c>
-      <c r="M34" s="9">
-        <f t="array" ref="M34">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.2973000000000002E-4</v>
-      </c>
-      <c r="N34" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.8466787290000002E-7</v>
-      </c>
-      <c r="O34" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999981533212712</v>
-      </c>
-      <c r="P34" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="1">
-        <v>670</v>
-      </c>
-      <c r="C35" s="1">
-        <v>999</v>
-      </c>
-      <c r="D35" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>IVAIPE-PR525</v>
-      </c>
-      <c r="E35" s="1">
-        <v>896</v>
-      </c>
-      <c r="F35" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CASCOE-PR525</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="9">
-        <f t="array" ref="H35">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.0269999999999999E-3</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1060</v>
-      </c>
-      <c r="J35" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SSANTI-PR525</v>
-      </c>
-      <c r="K35" s="1">
-        <v>897</v>
-      </c>
-      <c r="L35" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>SCAXIA-PR525</v>
-      </c>
-      <c r="M35" s="9">
-        <f t="array" ref="M35">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.0269999999999999E-3</v>
-      </c>
-      <c r="N35" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.0547289999999998E-6</v>
-      </c>
-      <c r="O35" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999894527099997</v>
-      </c>
-      <c r="P35" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="1">
-        <v>609</v>
-      </c>
-      <c r="C36" s="1">
-        <v>976</v>
-      </c>
-      <c r="D36" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>GRAVAT-RS525</v>
-      </c>
-      <c r="E36" s="1">
-        <v>979</v>
-      </c>
-      <c r="F36" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>NSRITA-RS525</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="9">
-        <f t="array" ref="H36">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.4509000000000001E-4</v>
-      </c>
-      <c r="I36" s="1">
-        <v>955</v>
-      </c>
-      <c r="J36" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="K36" s="1">
-        <v>964</v>
-      </c>
-      <c r="L36" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="M36" s="9">
-        <f t="array" ref="M36">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.4509000000000001E-4</v>
-      </c>
-      <c r="N36" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>2.1051108100000004E-8</v>
-      </c>
-      <c r="O36" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999997894889192</v>
-      </c>
-      <c r="P36" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="1">
-        <v>542</v>
-      </c>
-      <c r="C37" s="1">
-        <v>955</v>
-      </c>
-      <c r="D37" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="E37" s="1">
-        <v>964</v>
-      </c>
-      <c r="F37" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CAXIAS-RS525</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="9">
-        <f t="array" ref="H37">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="I37" s="1">
-        <v>976</v>
-      </c>
-      <c r="J37" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>GRAVAT-RS525</v>
-      </c>
-      <c r="K37" s="1">
-        <v>979</v>
-      </c>
-      <c r="L37" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>NSRITA-RS525</v>
-      </c>
-      <c r="M37" s="9">
-        <f t="array" ref="M37">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>9.9905000000000002E-4</v>
-      </c>
-      <c r="N37" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>9.9810090250000007E-7</v>
-      </c>
-      <c r="O37" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999900189909752</v>
-      </c>
-      <c r="P37" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="1">
-        <v>477</v>
-      </c>
-      <c r="C38" s="1">
-        <v>938</v>
-      </c>
-      <c r="D38" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC525</v>
-      </c>
-      <c r="E38" s="1">
-        <v>955</v>
-      </c>
-      <c r="F38" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="9">
-        <f t="array" ref="H38">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.2405000000000001E-3</v>
-      </c>
-      <c r="I38" s="1">
-        <v>955</v>
-      </c>
-      <c r="J38" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="K38" s="1">
-        <v>946</v>
-      </c>
-      <c r="L38" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC525</v>
-      </c>
-      <c r="M38" s="9">
-        <f t="array" ref="M38">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.2405000000000001E-3</v>
-      </c>
-      <c r="N38" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.5388402500000001E-6</v>
-      </c>
-      <c r="O38" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999846115975</v>
-      </c>
-      <c r="P38" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="1">
-        <v>455</v>
-      </c>
-      <c r="C39" s="1">
-        <v>938</v>
-      </c>
-      <c r="D39" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC525</v>
-      </c>
-      <c r="E39" s="1">
-        <v>946</v>
-      </c>
-      <c r="F39" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC525</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="9">
-        <f t="array" ref="H39">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.2778E-4</v>
-      </c>
-      <c r="I39" s="1">
-        <v>955</v>
-      </c>
-      <c r="J39" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="K39" s="1">
-        <v>946</v>
-      </c>
-      <c r="L39" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC525</v>
-      </c>
-      <c r="M39" s="9">
-        <f t="array" ref="M39">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.2778E-4</v>
-      </c>
-      <c r="N39" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.8299572840000001E-7</v>
-      </c>
-      <c r="O39" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999981700427165</v>
-      </c>
-      <c r="P39" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="1">
-        <v>453</v>
-      </c>
-      <c r="C40" s="1">
-        <v>938</v>
-      </c>
-      <c r="D40" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC525</v>
-      </c>
-      <c r="E40" s="1">
-        <v>946</v>
-      </c>
-      <c r="F40" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC525</v>
-      </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="9">
-        <f t="array" ref="H40">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.2778E-4</v>
-      </c>
-      <c r="I40" s="1">
-        <v>938</v>
-      </c>
-      <c r="J40" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC525</v>
-      </c>
-      <c r="K40" s="1">
-        <v>955</v>
-      </c>
-      <c r="L40" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="M40" s="9">
-        <f t="array" ref="M40">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>4.2778E-4</v>
-      </c>
-      <c r="N40" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.8299572840000001E-7</v>
-      </c>
-      <c r="O40" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999981700427165</v>
-      </c>
-      <c r="P40" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="1">
-        <v>383</v>
-      </c>
-      <c r="C41" s="1">
-        <v>933</v>
-      </c>
-      <c r="D41" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>AREIA--PR525</v>
-      </c>
-      <c r="E41" s="1">
-        <v>959</v>
-      </c>
-      <c r="F41" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CURITI-PR525</v>
-      </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="9">
-        <f t="array" ref="H41">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.1555999999999999E-3</v>
-      </c>
-      <c r="I41" s="1">
-        <v>955</v>
-      </c>
-      <c r="J41" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="K41" s="1">
-        <v>946</v>
-      </c>
-      <c r="L41" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC525</v>
-      </c>
-      <c r="M41" s="9">
-        <f t="array" ref="M41">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.1555999999999999E-3</v>
-      </c>
-      <c r="N41" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.3354113599999999E-6</v>
-      </c>
-      <c r="O41" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999866458863995</v>
-      </c>
-      <c r="P41" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="1">
-        <v>381</v>
-      </c>
-      <c r="C42" s="1">
-        <v>933</v>
-      </c>
-      <c r="D42" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>AREIA--PR525</v>
-      </c>
-      <c r="E42" s="1">
-        <v>959</v>
-      </c>
-      <c r="F42" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CURITI-PR525</v>
-      </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="9">
-        <f t="array" ref="H42">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.1555999999999999E-3</v>
-      </c>
-      <c r="I42" s="1">
-        <v>938</v>
-      </c>
-      <c r="J42" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC525</v>
-      </c>
-      <c r="K42" s="1">
-        <v>955</v>
-      </c>
-      <c r="L42" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="M42" s="9">
-        <f t="array" ref="M42">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.1555999999999999E-3</v>
-      </c>
-      <c r="N42" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.3354113599999999E-6</v>
-      </c>
-      <c r="O42" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999866458863995</v>
-      </c>
-      <c r="P42" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="1">
-        <v>330</v>
-      </c>
-      <c r="C43" s="1">
-        <v>933</v>
-      </c>
-      <c r="D43" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>AREIA--PR525</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="E32" s="11">
         <v>895</v>
       </c>
-      <c r="F43" s="9" t="str">
+      <c r="F32" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="9">
-        <f t="array" ref="H43">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+      <c r="G32" s="11"/>
+      <c r="H32" s="10">
+        <f t="array" ref="H32">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="I43" s="1">
-        <v>955</v>
-      </c>
-      <c r="J43" s="9" t="str">
+      <c r="I32" s="11">
+        <v>933</v>
+      </c>
+      <c r="J32" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="K43" s="1">
-        <v>946</v>
-      </c>
-      <c r="L43" s="9" t="str">
+        <v>AREIA--PR525</v>
+      </c>
+      <c r="K32" s="11">
+        <v>959</v>
+      </c>
+      <c r="L32" s="10" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BIGUAC-SC525</v>
-      </c>
-      <c r="M43" s="9">
-        <f t="array" ref="M43">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
+        <v>CURITI-PR525</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="array" ref="M32">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N32" s="10">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O43" s="10">
+      <c r="O32" s="13">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P43" s="10">
+      <c r="P32" s="13">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="1">
-        <v>328</v>
-      </c>
-      <c r="C44" s="1">
-        <v>933</v>
-      </c>
-      <c r="D44" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>AREIA--PR525</v>
-      </c>
-      <c r="E44" s="1">
-        <v>895</v>
-      </c>
-      <c r="F44" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BATEIA-PR525</v>
-      </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="9">
-        <f t="array" ref="H44">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.2577000000000001E-3</v>
-      </c>
-      <c r="I44" s="1">
-        <v>938</v>
-      </c>
-      <c r="J44" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BLUMEN-SC525</v>
-      </c>
-      <c r="K44" s="1">
-        <v>955</v>
-      </c>
-      <c r="L44" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CNOVOS-SC525</v>
-      </c>
-      <c r="M44" s="9">
-        <f t="array" ref="M44">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.2577000000000001E-3</v>
-      </c>
-      <c r="N44" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.5818092900000001E-6</v>
-      </c>
-      <c r="O44" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999841819071</v>
-      </c>
-      <c r="P44" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="1">
-        <v>324</v>
-      </c>
-      <c r="C45" s="1">
-        <v>933</v>
-      </c>
-      <c r="D45" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>AREIA--PR525</v>
-      </c>
-      <c r="E45" s="1">
-        <v>895</v>
-      </c>
-      <c r="F45" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>BATEIA-PR525</v>
-      </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="9">
-        <f t="array" ref="H45">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.2577000000000001E-3</v>
-      </c>
-      <c r="I45" s="1">
-        <v>933</v>
-      </c>
-      <c r="J45" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>AREIA--PR525</v>
-      </c>
-      <c r="K45" s="1">
-        <v>959</v>
-      </c>
-      <c r="L45" s="9" t="str">
-        <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
-        <v>CURITI-PR525</v>
-      </c>
-      <c r="M45" s="9">
-        <f t="array" ref="M45">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
-        <v>1.2577000000000001E-3</v>
-      </c>
-      <c r="N45" s="12">
-        <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
-        <v>1.5818092900000001E-6</v>
-      </c>
-      <c r="O45" s="10">
-        <f>1-Tabela14[[#This Row],[Q Eq]]</f>
-        <v>0.99999841819071</v>
-      </c>
-      <c r="P45" s="10">
-        <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11">
         <f>1-Tabela14[[#Totals],[P Eq]]</f>
-        <v>3.4151062285658895E-5</v>
-      </c>
-      <c r="O46" s="1">
+        <v>2.9278205687321979E-5</v>
+      </c>
+      <c r="O33" s="11">
         <f>PRODUCT(Tabela14[P Eq])</f>
-        <v>0.99996584893771434</v>
-      </c>
-      <c r="P46" s="8">
-        <f>PRODUCT(P2:P45)</f>
+        <v>0.99997072179431268</v>
+      </c>
+      <c r="P33" s="31">
+        <f>Tabela14[[#Totals],[P Eq]]+Tabela14[[#Totals],[Q Eq]]</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A45"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="A23:A32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
